--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
@@ -2027,8 +2027,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2036,8 +2042,20 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2058,12 +2076,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2072,26 +2084,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2594,7 +2594,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2645,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2704,7 +2704,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2763,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2822,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,7 +2881,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +2932,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2991,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3050,7 +3050,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3101,7 +3101,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3219,7 +3219,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,7 +3270,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,7 +3329,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3388,7 +3388,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,7 +3447,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3506,7 +3506,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3565,7 +3565,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3616,7 +3616,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3667,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3718,7 +3718,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3777,7 +3777,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4137,10 +4137,10 @@
   <dimension ref="A1:BL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
+      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4163,215 +4163,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103">
+      <c r="B2" s="103"/>
+      <c r="C2" s="90">
         <f ca="1">TODAY()</f>
+        <v>44041</v>
+      </c>
+      <c r="D2" s="90"/>
+      <c r="K2" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="103"/>
+      <c r="M2" s="90">
+        <v>43992</v>
+      </c>
+      <c r="N2" s="90"/>
+      <c r="O2" s="85">
+        <v>43983</v>
+      </c>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="85">
+        <v>44013</v>
+      </c>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="86"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="85">
+        <v>44044</v>
+      </c>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="86"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="86"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="86"/>
+      <c r="BJ2" s="86"/>
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="86"/>
+    </row>
+    <row r="3" spans="1:64">
+      <c r="A3" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="82">
+        <v>43990</v>
+      </c>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="82">
+        <v>43997</v>
+      </c>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="82">
+        <v>44004</v>
+      </c>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="82">
+        <v>44011</v>
+      </c>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="82">
+        <v>44018</v>
+      </c>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="82">
+        <v>44025</v>
+      </c>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="82">
+        <v>44032</v>
+      </c>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="82">
         <v>44039</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="K2" s="102" t="s">
-        <v>212</v>
-      </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103">
-        <v>43992</v>
-      </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="83">
-        <v>43983</v>
-      </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="83">
-        <v>44013</v>
-      </c>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="83">
-        <v>44044</v>
-      </c>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84"/>
-    </row>
-    <row r="3" spans="1:64">
-      <c r="A3" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="K3" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="M3" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="O3" s="97">
-        <v>43990</v>
-      </c>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="97">
-        <v>43997</v>
-      </c>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="97">
-        <v>44004</v>
-      </c>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="97">
-        <v>44011</v>
-      </c>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="97">
-        <v>44018</v>
-      </c>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="97">
-        <v>44025</v>
-      </c>
-      <c r="AO3" s="98"/>
-      <c r="AP3" s="98"/>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="101"/>
-      <c r="AS3" s="97">
-        <v>44032</v>
-      </c>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="97">
-        <v>44039</v>
-      </c>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="98"/>
-      <c r="BA3" s="98"/>
-      <c r="BB3" s="101"/>
-      <c r="BC3" s="97">
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="82">
         <v>44046</v>
       </c>
-      <c r="BD3" s="98"/>
-      <c r="BE3" s="98"/>
-      <c r="BF3" s="98"/>
-      <c r="BG3" s="101"/>
-      <c r="BH3" s="97">
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="82">
         <v>44053</v>
       </c>
-      <c r="BI3" s="98"/>
-      <c r="BJ3" s="98"/>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="101"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="84"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -6663,11 +6663,15 @@
       <c r="J32" s="44">
         <v>44036</v>
       </c>
-      <c r="K32" s="45"/>
+      <c r="K32" s="44">
+        <v>44039</v>
+      </c>
       <c r="L32" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="M32" s="39"/>
+      <c r="M32" s="39">
+        <v>1</v>
+      </c>
       <c r="N32" s="62" t="s">
         <v>95</v>
       </c>
@@ -6741,11 +6745,15 @@
       <c r="J33" s="44">
         <v>44040</v>
       </c>
-      <c r="K33" s="45"/>
+      <c r="K33" s="44">
+        <v>44041</v>
+      </c>
       <c r="L33" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="M33" s="39"/>
+      <c r="M33" s="39">
+        <v>1</v>
+      </c>
       <c r="N33" s="62" t="s">
         <v>95</v>
       </c>
@@ -7279,9 +7287,13 @@
       <c r="J40" s="44">
         <v>44036</v>
       </c>
-      <c r="K40" s="45"/>
+      <c r="K40" s="44">
+        <v>44042</v>
+      </c>
       <c r="L40" s="81"/>
-      <c r="M40" s="39"/>
+      <c r="M40" s="39">
+        <v>1</v>
+      </c>
       <c r="N40" s="62" t="s">
         <v>340</v>
       </c>
@@ -7355,9 +7367,13 @@
       <c r="J41" s="44">
         <v>44040</v>
       </c>
-      <c r="K41" s="45"/>
+      <c r="K41" s="44">
+        <v>44041</v>
+      </c>
       <c r="L41" s="81"/>
-      <c r="M41" s="39"/>
+      <c r="M41" s="39">
+        <v>1</v>
+      </c>
       <c r="N41" s="62" t="s">
         <v>340</v>
       </c>
@@ -20818,17 +20834,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20845,6 +20850,17 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
@@ -4137,10 +4137,10 @@
   <dimension ref="A1:BL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
+      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="397">
   <si>
     <t>标识号</t>
   </si>
@@ -648,800 +648,804 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>校准系统增加IP/SI校准功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对IP V3校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭工、欧阳、罗工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU执行板序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU执行板校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳玲军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI单相、三相、直流协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对RPDU校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭工、欧阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期：</t>
+  </si>
+  <si>
+    <t>起始日期：</t>
+  </si>
+  <si>
+    <t>智能PDU质量管理系统项目进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江长胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板（八位）提供三块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3直流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统子项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义目标和需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项目任务分解、具体实施进度安排</t>
+  </si>
+  <si>
+    <t>MAC管理系统接口协议确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各PDU与MAC管理系统协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-PDU软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件界面原型设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口协议及MAC地址创建功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能联调及阶段收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备出厂恢复管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义目标、确定需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复接口协议确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复系统总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDU出厂恢复接口协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、SI-PDU出厂恢复功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/V3出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复管理系统项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口协议及恢复设置检测功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">核心功能、日志记录等功能实现 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统联调、功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">核心功能、日志记录实现 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统联调、功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定目标、收集需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测方案讨论和初步确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础实验的验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各PDU通讯功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.3</t>
+  </si>
+  <si>
+    <t>4.2.4</t>
+  </si>
+  <si>
+    <t>核心功能、关键业务功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能完善、系统调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产质量检测系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台服务管理平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对IP V1校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>1.6.1.3</t>
+  </si>
+  <si>
+    <t>1.6.2.1</t>
+  </si>
+  <si>
+    <t>1.6.2.2</t>
+  </si>
+  <si>
+    <t>1.6.2.3</t>
+  </si>
+  <si>
+    <t>1.6.3.1</t>
+  </si>
+  <si>
+    <t>1.6.3.2</t>
+  </si>
+  <si>
+    <t>1.6.3.3</t>
+  </si>
+  <si>
+    <t>1.6.4</t>
+  </si>
+  <si>
+    <t>1.6.4.1</t>
+  </si>
+  <si>
+    <t>1.6.4.2</t>
+  </si>
+  <si>
+    <t>1.6.4.3</t>
+  </si>
+  <si>
+    <t>SI、BM表头软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、BM直流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李科杰</t>
+  </si>
+  <si>
+    <t>李科杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、IP、BM设备校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头校准部分修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段联调及收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统增加MPDU/RPDU校准功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>1.5.2.3</t>
+  </si>
+  <si>
+    <t>1.6.4.4</t>
+  </si>
+  <si>
+    <t>20 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU执行板校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件设备准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU单片机软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">磁保持执行板数据读取开关控制 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作说明书编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持校准联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板联调、正式发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统阶段成果交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇、彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU执行板软件联调、正式发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度/ZPDU执行板联调、发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2.4</t>
+  </si>
+  <si>
+    <t>1.5.2.5</t>
+  </si>
+  <si>
+    <t>1.5.2.6</t>
+  </si>
+  <si>
+    <t>欧阳玲军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头校准前期准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1.4</t>
+  </si>
+  <si>
+    <t>1.6.1.5</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.5</t>
+  </si>
+  <si>
+    <t>1.6.5</t>
+  </si>
+  <si>
+    <t>1.6.5.1</t>
+  </si>
+  <si>
+    <t>1.6.5.2</t>
+  </si>
+  <si>
+    <t>1.6.5.3</t>
+  </si>
+  <si>
+    <t>RPDU设备校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统对MPDU磁保持执行板功能支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3单三相直流协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作说明书编写及阶段成果交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>1.7.2.1</t>
+  </si>
+  <si>
+    <t>1.7.2.2</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>1.7.3.1</t>
+  </si>
+  <si>
+    <t>1.7.3.2</t>
+  </si>
+  <si>
+    <t>1.7.4</t>
+  </si>
+  <si>
+    <t>1.7.4.1</t>
+  </si>
+  <si>
+    <t>1.7.4.2</t>
+  </si>
+  <si>
+    <t>1.7.4.3</t>
+  </si>
+  <si>
+    <t>1.7.7</t>
+  </si>
+  <si>
+    <t>1.7.7.1</t>
+  </si>
+  <si>
+    <t>IP-V1/3序列号功能增加、单相交流校准改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3交流三相校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、BM序列号功能增加、单相交流校准改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、BM交流三相校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头校准及验证方案 和 ZPDU磁保持执行板联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP校准方法调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流校准方法调研 和 MPDU普通执行板联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、SI校准方法调研，包单三相交直流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流三相、直流标准源软件控制实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度/ZPDU执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>IP表头软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统增加IP/SI校准功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对IP V3校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭工、欧阳、罗工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU执行板序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU执行板校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳玲军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI单相、三相、直流协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对RPDU校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭工、欧阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前日期：</t>
-  </si>
-  <si>
-    <t>起始日期：</t>
-  </si>
-  <si>
-    <t>智能PDU质量管理系统项目进度计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江长胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板（八位）提供三块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/3直流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统子项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统子项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义目标和需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子项目任务分解、具体实施进度安排</t>
-  </si>
-  <si>
-    <t>MAC管理系统接口协议确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统总体设计方案编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各PDU与MAC管理系统协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-PDU软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU主控软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU主控软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU主控软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件界面原型设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口协议及MAC地址创建功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能联调及阶段收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备出厂恢复管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义目标、确定需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复接口协议确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复系统总体设计方案编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDU出厂恢复接口协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM、SI-PDU出厂恢复功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/V3出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复管理系统项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复系统软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口协议及恢复设置检测功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">核心功能、日志记录等功能实现 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统联调、功能完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">核心功能、日志记录实现 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统联调、功能完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测系统项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定目标、收集需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测方案讨论和初步确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体设计方案编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础实验的验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测系统软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各PDU通讯功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.3</t>
-  </si>
-  <si>
-    <t>4.2.4</t>
-  </si>
-  <si>
-    <t>核心功能、关键业务功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能完善、系统调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统子项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产质量检测系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台服务管理平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对IP V1校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2</t>
-  </si>
-  <si>
-    <t>1.6.1.3</t>
-  </si>
-  <si>
-    <t>1.6.2.1</t>
-  </si>
-  <si>
-    <t>1.6.2.2</t>
-  </si>
-  <si>
-    <t>1.6.2.3</t>
-  </si>
-  <si>
-    <t>1.6.3.1</t>
-  </si>
-  <si>
-    <t>1.6.3.2</t>
-  </si>
-  <si>
-    <t>1.6.3.3</t>
-  </si>
-  <si>
-    <t>1.6.4</t>
-  </si>
-  <si>
-    <t>1.6.4.1</t>
-  </si>
-  <si>
-    <t>1.6.4.2</t>
-  </si>
-  <si>
-    <t>1.6.4.3</t>
-  </si>
-  <si>
-    <t>SI、BM表头软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI、BM直流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李科杰</t>
-  </si>
-  <si>
-    <t>李科杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI、IP、BM设备校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头校准部分修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段联调及收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统增加MPDU/RPDU校准功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
-    <t>1.5.2.3</t>
-  </si>
-  <si>
-    <t>1.6.4.4</t>
-  </si>
-  <si>
-    <t>20 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU执行板校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件设备准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU单片机软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测系统子项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">磁保持执行板数据读取开关控制 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作说明书编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持校准联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板联调、正式发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统阶段成果交付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇、彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU执行板软件联调、正式发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高密度/ZPDU执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高密度/ZPDU执行板联调、发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.4</t>
-  </si>
-  <si>
-    <t>1.5.2.5</t>
-  </si>
-  <si>
-    <t>1.5.2.6</t>
-  </si>
-  <si>
-    <t>欧阳玲军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表头校准前期准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1.4</t>
-  </si>
-  <si>
-    <t>1.6.1.5</t>
-  </si>
-  <si>
-    <t>1.6.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.5</t>
-  </si>
-  <si>
-    <t>1.6.5</t>
-  </si>
-  <si>
-    <t>1.6.5.1</t>
-  </si>
-  <si>
-    <t>1.6.5.2</t>
-  </si>
-  <si>
-    <t>1.6.5.3</t>
-  </si>
-  <si>
-    <t>RPDU设备校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM、SI校准方法了解，包单三相交直流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统对MPDU磁保持执行板功能支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表头校准及验证方案整理 和 ZPDU磁保持执行板联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP校准方法了解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/3单三相直流协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直流校准方法了解 和 MPDU普通执行板联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作说明书编写及阶段成果交付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7.2</t>
-  </si>
-  <si>
-    <t>1.7.2.1</t>
-  </si>
-  <si>
-    <t>1.7.2.2</t>
-  </si>
-  <si>
-    <t>1.7.3</t>
-  </si>
-  <si>
-    <t>1.7.3.1</t>
-  </si>
-  <si>
-    <t>1.7.3.2</t>
-  </si>
-  <si>
-    <t>1.7.4</t>
-  </si>
-  <si>
-    <t>1.7.4.1</t>
-  </si>
-  <si>
-    <t>1.7.4.2</t>
-  </si>
-  <si>
-    <t>1.7.4.3</t>
-  </si>
-  <si>
-    <t>1.7.7</t>
-  </si>
-  <si>
-    <t>1.7.7.1</t>
-  </si>
-  <si>
-    <t>IP-V1/3序列号功能增加、单相交流校准改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/3交流三相校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI、BM序列号功能增加、单相交流校准改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI、BM交流三相校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交流三相、直流标准源软件控制实验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2027,14 +2031,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2042,20 +2040,8 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2076,6 +2062,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2084,14 +2076,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2594,7 +2598,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2649,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2704,7 +2708,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2767,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2826,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,7 +2885,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +2936,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2995,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3050,7 +3054,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3101,7 +3105,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3164,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3219,7 +3223,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,7 +3274,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,7 +3333,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3388,7 +3392,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,7 +3451,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3506,7 +3510,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3565,7 +3569,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3616,7 +3620,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3671,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3718,7 +3722,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3777,7 +3781,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4137,10 +4141,10 @@
   <dimension ref="A1:BL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4163,215 +4167,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="A1" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="102" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="103">
+        <f ca="1">TODAY()</f>
+        <v>44046</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="K2" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="90">
-        <f ca="1">TODAY()</f>
-        <v>44041</v>
-      </c>
-      <c r="D2" s="90"/>
-      <c r="K2" s="103" t="s">
-        <v>212</v>
-      </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="90">
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>43992</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="85">
+      <c r="N2" s="103"/>
+      <c r="O2" s="83">
         <v>43983</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="85">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="83">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="86"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="85">
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="83">
         <v>44044</v>
       </c>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="86"/>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="86"/>
-      <c r="BI2" s="86"/>
-      <c r="BJ2" s="86"/>
-      <c r="BK2" s="86"/>
-      <c r="BL2" s="86"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="84"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="97">
         <v>43990</v>
       </c>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="82">
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="97">
         <v>43997</v>
       </c>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="82">
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="97">
         <v>44004</v>
       </c>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="82">
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="97">
         <v>44011</v>
       </c>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="82">
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="97">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="82">
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="97">
         <v>44025</v>
       </c>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="82">
+      <c r="AO3" s="98"/>
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="97">
         <v>44032</v>
       </c>
-      <c r="AT3" s="83"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="83"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="82">
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="98"/>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="97">
         <v>44039</v>
       </c>
-      <c r="AY3" s="83"/>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="82">
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
+      <c r="BA3" s="98"/>
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="97">
         <v>44046</v>
       </c>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="82">
+      <c r="BD3" s="98"/>
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="98"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="97">
         <v>44053</v>
       </c>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="84"/>
+      <c r="BI3" s="98"/>
+      <c r="BJ3" s="98"/>
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="101"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -5814,7 +5818,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="31"/>
       <c r="H21" s="43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I21" s="44">
         <v>44004</v>
@@ -5965,7 +5969,7 @@
         <v>179</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="31"/>
@@ -5988,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O23" s="66"/>
       <c r="P23" s="10"/>
@@ -6047,7 +6051,7 @@
         <v>180</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="31"/>
@@ -6226,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O26" s="66"/>
       <c r="P26" s="10"/>
@@ -6365,7 +6369,7 @@
         <v>1.5</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="80"/>
@@ -6431,10 +6435,10 @@
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>324</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>325</v>
       </c>
       <c r="E29" s="80"/>
       <c r="F29" s="29"/>
@@ -6499,15 +6503,15 @@
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="D30" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="31"/>
       <c r="H30" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I30" s="44">
         <v>44029</v>
@@ -6523,7 +6527,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O30" s="66"/>
       <c r="P30" s="10"/>
@@ -6578,10 +6582,10 @@
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>327</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>328</v>
       </c>
       <c r="E31" s="80"/>
       <c r="F31" s="29"/>
@@ -6647,15 +6651,15 @@
       <c r="B32" s="27"/>
       <c r="C32" s="32"/>
       <c r="D32" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="31"/>
       <c r="H32" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I32" s="44">
         <v>44032</v>
@@ -6667,7 +6671,7 @@
         <v>44039</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M32" s="39">
         <v>1</v>
@@ -6729,15 +6733,15 @@
       <c r="B33" s="27"/>
       <c r="C33" s="32"/>
       <c r="D33" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="31"/>
       <c r="H33" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I33" s="44">
         <v>44039</v>
@@ -6749,7 +6753,7 @@
         <v>44041</v>
       </c>
       <c r="L33" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M33" s="39">
         <v>1</v>
@@ -6811,15 +6815,15 @@
       <c r="B34" s="27"/>
       <c r="C34" s="32"/>
       <c r="D34" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="31"/>
       <c r="H34" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I34" s="44">
         <v>44041</v>
@@ -6827,11 +6831,15 @@
       <c r="J34" s="44">
         <v>44042</v>
       </c>
-      <c r="K34" s="45"/>
+      <c r="K34" s="44">
+        <v>44042</v>
+      </c>
       <c r="L34" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="M34" s="39"/>
+        <v>344</v>
+      </c>
+      <c r="M34" s="39">
+        <v>1</v>
+      </c>
       <c r="N34" s="62" t="s">
         <v>95</v>
       </c>
@@ -6889,15 +6897,15 @@
       <c r="B35" s="27"/>
       <c r="C35" s="32"/>
       <c r="D35" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="31"/>
       <c r="H35" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I35" s="44">
         <v>44043</v>
@@ -6905,11 +6913,15 @@
       <c r="J35" s="44">
         <v>44046</v>
       </c>
-      <c r="K35" s="45"/>
+      <c r="K35" s="44">
+        <v>44046</v>
+      </c>
       <c r="L35" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="M35" s="39"/>
+        <v>319</v>
+      </c>
+      <c r="M35" s="39">
+        <v>1</v>
+      </c>
       <c r="N35" s="62" t="s">
         <v>95</v>
       </c>
@@ -6967,15 +6979,15 @@
       <c r="B36" s="27"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="31"/>
       <c r="H36" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I36" s="44">
         <v>44047</v>
@@ -6985,11 +6997,11 @@
       </c>
       <c r="K36" s="45"/>
       <c r="L36" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M36" s="39"/>
       <c r="N36" s="62" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O36" s="66"/>
       <c r="P36" s="10"/>
@@ -7045,15 +7057,15 @@
       <c r="B37" s="27"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="31"/>
       <c r="H37" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I37" s="44">
         <v>44049</v>
@@ -7063,7 +7075,7 @@
       </c>
       <c r="K37" s="45"/>
       <c r="L37" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M37" s="39"/>
       <c r="N37" s="62" t="s">
@@ -7122,10 +7134,10 @@
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
       <c r="C38" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
@@ -7191,15 +7203,15 @@
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>336</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>337</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="31"/>
       <c r="H39" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I39" s="44">
         <v>44032</v>
@@ -7215,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O39" s="66"/>
       <c r="P39" s="10"/>
@@ -7271,10 +7283,10 @@
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>338</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>339</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="31"/>
@@ -7295,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="62" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O40" s="66"/>
       <c r="P40" s="10"/>
@@ -7351,15 +7363,15 @@
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="31"/>
       <c r="H41" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I41" s="44">
         <v>44039</v>
@@ -7370,12 +7382,14 @@
       <c r="K41" s="44">
         <v>44041</v>
       </c>
-      <c r="L41" s="81"/>
+      <c r="L41" s="28" t="s">
+        <v>344</v>
+      </c>
       <c r="M41" s="39">
         <v>1</v>
       </c>
       <c r="N41" s="62" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O41" s="66"/>
       <c r="P41" s="10"/>
@@ -7431,15 +7445,15 @@
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="31"/>
       <c r="H42" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I42" s="44">
         <v>44041</v>
@@ -7447,11 +7461,17 @@
       <c r="J42" s="44">
         <v>44043</v>
       </c>
-      <c r="K42" s="45"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="39"/>
+      <c r="K42" s="44">
+        <v>44043</v>
+      </c>
+      <c r="L42" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M42" s="39">
+        <v>1</v>
+      </c>
       <c r="N42" s="62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O42" s="66"/>
       <c r="P42" s="10"/>
@@ -7508,7 +7528,7 @@
         <v>1.6</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="28"/>
@@ -7574,10 +7594,10 @@
       <c r="A44" s="26"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
@@ -7643,15 +7663,15 @@
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="27" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="31"/>
       <c r="H45" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I45" s="44">
         <v>44046</v>
@@ -7663,7 +7683,7 @@
       <c r="L45" s="42"/>
       <c r="M45" s="40"/>
       <c r="N45" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O45" s="66"/>
       <c r="P45" s="10"/>
@@ -7719,15 +7739,15 @@
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
       <c r="D46" s="27" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="31"/>
       <c r="H46" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I46" s="44">
         <v>44049</v>
@@ -7739,7 +7759,7 @@
       <c r="L46" s="42"/>
       <c r="M46" s="40"/>
       <c r="N46" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O46" s="66"/>
       <c r="P46" s="10"/>
@@ -7795,15 +7815,15 @@
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
       <c r="D47" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="31"/>
       <c r="H47" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I47" s="44">
         <v>44046</v>
@@ -7815,7 +7835,7 @@
       <c r="L47" s="42"/>
       <c r="M47" s="40"/>
       <c r="N47" s="63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O47" s="66"/>
       <c r="P47" s="10"/>
@@ -7871,15 +7891,15 @@
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="D48" s="27" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="31"/>
       <c r="H48" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I48" s="44">
         <v>44053</v>
@@ -7891,7 +7911,7 @@
       <c r="L48" s="42"/>
       <c r="M48" s="40"/>
       <c r="N48" s="62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O48" s="66"/>
       <c r="P48" s="10"/>
@@ -7947,15 +7967,15 @@
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
       <c r="D49" s="27" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="31"/>
       <c r="H49" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I49" s="44">
         <v>44053</v>
@@ -7967,7 +7987,7 @@
       <c r="L49" s="42"/>
       <c r="M49" s="40"/>
       <c r="N49" s="63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O49" s="66"/>
       <c r="P49" s="10"/>
@@ -8022,10 +8042,10 @@
       <c r="A50" s="26"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>186</v>
+        <v>396</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="29"/>
@@ -8091,15 +8111,15 @@
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
       <c r="D51" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F51" s="69"/>
       <c r="G51" s="31"/>
       <c r="H51" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I51" s="44">
         <v>44053</v>
@@ -8109,7 +8129,7 @@
       <c r="L51" s="42"/>
       <c r="M51" s="40"/>
       <c r="N51" s="63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O51" s="66"/>
       <c r="P51" s="10"/>
@@ -8165,15 +8185,15 @@
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
       <c r="D52" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F52" s="69"/>
       <c r="G52" s="31"/>
       <c r="H52" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I52" s="44">
         <v>44060</v>
@@ -8183,7 +8203,7 @@
       <c r="L52" s="42"/>
       <c r="M52" s="40"/>
       <c r="N52" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O52" s="66"/>
       <c r="P52" s="10"/>
@@ -8239,15 +8259,15 @@
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="D53" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="31"/>
       <c r="H53" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I53" s="44">
         <v>44067</v>
@@ -8257,7 +8277,7 @@
       <c r="L53" s="42"/>
       <c r="M53" s="40"/>
       <c r="N53" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O53" s="66"/>
       <c r="P53" s="10"/>
@@ -8312,10 +8332,10 @@
       <c r="A54" s="26"/>
       <c r="B54" s="32"/>
       <c r="C54" s="68" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="50"/>
@@ -8381,15 +8401,15 @@
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
       <c r="D55" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="31"/>
       <c r="H55" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I55" s="44">
         <v>44053</v>
@@ -8399,7 +8419,7 @@
       <c r="L55" s="42"/>
       <c r="M55" s="40"/>
       <c r="N55" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O55" s="66"/>
       <c r="P55" s="10"/>
@@ -8455,15 +8475,15 @@
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
       <c r="D56" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="31"/>
       <c r="H56" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I56" s="44">
         <v>44060</v>
@@ -8473,7 +8493,7 @@
       <c r="L56" s="42"/>
       <c r="M56" s="40"/>
       <c r="N56" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O56" s="66"/>
       <c r="P56" s="10"/>
@@ -8529,15 +8549,15 @@
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
       <c r="D57" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="31"/>
       <c r="H57" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I57" s="44">
         <v>44067</v>
@@ -8547,7 +8567,7 @@
       <c r="L57" s="42"/>
       <c r="M57" s="40"/>
       <c r="N57" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O57" s="66"/>
       <c r="P57" s="10"/>
@@ -8602,10 +8622,10 @@
       <c r="A58" s="26"/>
       <c r="B58" s="32"/>
       <c r="C58" s="68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="29"/>
@@ -8671,7 +8691,7 @@
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
       <c r="D59" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E59" s="28" t="s">
         <v>183</v>
@@ -8679,7 +8699,7 @@
       <c r="F59" s="29"/>
       <c r="G59" s="31"/>
       <c r="H59" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I59" s="44">
         <v>44053</v>
@@ -8745,15 +8765,15 @@
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
       <c r="D60" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="31"/>
       <c r="H60" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I60" s="44">
         <v>44060</v>
@@ -8763,7 +8783,7 @@
       <c r="L60" s="42"/>
       <c r="M60" s="40"/>
       <c r="N60" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O60" s="66"/>
       <c r="P60" s="10"/>
@@ -8819,7 +8839,7 @@
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
       <c r="D61" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>184</v>
@@ -8827,7 +8847,7 @@
       <c r="F61" s="29"/>
       <c r="G61" s="31"/>
       <c r="H61" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I61" s="44">
         <v>44067</v>
@@ -8835,11 +8855,11 @@
       <c r="J61" s="44"/>
       <c r="K61" s="45"/>
       <c r="L61" s="42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M61" s="40"/>
       <c r="N61" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O61" s="66"/>
       <c r="P61" s="10"/>
@@ -8895,15 +8915,15 @@
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
       <c r="D62" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="31"/>
       <c r="H62" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I62" s="44">
         <v>44053</v>
@@ -8913,7 +8933,7 @@
       <c r="L62" s="42"/>
       <c r="M62" s="40"/>
       <c r="N62" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O62" s="66"/>
       <c r="P62" s="10"/>
@@ -8969,15 +8989,15 @@
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
       <c r="D63" s="27" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="31"/>
       <c r="H63" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I63" s="44">
         <v>44060</v>
@@ -8985,11 +9005,11 @@
       <c r="J63" s="44"/>
       <c r="K63" s="45"/>
       <c r="L63" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M63" s="40"/>
       <c r="N63" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="66"/>
       <c r="P63" s="10"/>
@@ -9045,15 +9065,15 @@
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
       <c r="D64" s="27" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F64" s="50"/>
       <c r="G64" s="31"/>
       <c r="H64" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I64" s="44">
         <v>44067</v>
@@ -9063,7 +9083,7 @@
       <c r="L64" s="42"/>
       <c r="M64" s="40"/>
       <c r="N64" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="66"/>
       <c r="P64" s="10"/>
@@ -9118,10 +9138,10 @@
       <c r="A65" s="26"/>
       <c r="B65" s="32"/>
       <c r="C65" s="68" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="50"/>
@@ -9187,14 +9207,14 @@
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
       <c r="D66" s="27" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G66" s="31"/>
       <c r="H66" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I66" s="44">
         <v>44074</v>
@@ -9204,7 +9224,7 @@
       <c r="L66" s="42"/>
       <c r="M66" s="40"/>
       <c r="N66" s="63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O66" s="66"/>
       <c r="P66" s="10"/>
@@ -9260,14 +9280,14 @@
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
       <c r="D67" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G67" s="31"/>
       <c r="H67" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I67" s="44">
         <v>44074</v>
@@ -9277,7 +9297,7 @@
       <c r="L67" s="42"/>
       <c r="M67" s="40"/>
       <c r="N67" s="63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O67" s="66"/>
       <c r="P67" s="10"/>
@@ -9333,14 +9353,14 @@
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
       <c r="D68" s="27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G68" s="31"/>
       <c r="H68" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I68" s="44">
         <v>44081</v>
@@ -9350,7 +9370,7 @@
       <c r="L68" s="42"/>
       <c r="M68" s="40"/>
       <c r="N68" s="63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O68" s="66"/>
       <c r="P68" s="10"/>
@@ -9407,7 +9427,7 @@
         <v>1.7</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="28"/>
@@ -9473,10 +9493,10 @@
       <c r="A70" s="26"/>
       <c r="B70" s="70"/>
       <c r="C70" s="70" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="29"/>
@@ -9542,10 +9562,10 @@
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
       <c r="D71" s="29" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="31"/>
@@ -9610,10 +9630,10 @@
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
       <c r="D72" s="29" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="31"/>
@@ -9677,10 +9697,10 @@
       <c r="A73" s="26"/>
       <c r="B73" s="70"/>
       <c r="C73" s="70" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="29"/>
@@ -9746,10 +9766,10 @@
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
       <c r="D74" s="29" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="31"/>
@@ -9814,10 +9834,10 @@
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
       <c r="D75" s="29" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F75" s="29"/>
       <c r="G75" s="31"/>
@@ -9881,10 +9901,10 @@
       <c r="A76" s="26"/>
       <c r="B76" s="70"/>
       <c r="C76" s="70" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="29"/>
@@ -9950,10 +9970,10 @@
       <c r="B77" s="32"/>
       <c r="C77" s="32"/>
       <c r="D77" s="29" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="31"/>
@@ -10018,10 +10038,10 @@
       <c r="B78" s="32"/>
       <c r="C78" s="32"/>
       <c r="D78" s="29" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="31"/>
@@ -10086,10 +10106,10 @@
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
       <c r="D79" s="29" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="31"/>
@@ -10153,10 +10173,10 @@
       <c r="A80" s="26"/>
       <c r="B80" s="70"/>
       <c r="C80" s="79" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="29"/>
@@ -10222,10 +10242,10 @@
       <c r="B81" s="32"/>
       <c r="C81" s="32"/>
       <c r="D81" s="27" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F81" s="29"/>
       <c r="G81" s="31"/>
@@ -10354,7 +10374,7 @@
         <v>2</v>
       </c>
       <c r="B83" s="70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C83" s="73"/>
       <c r="D83" s="29"/>
@@ -10423,7 +10443,7 @@
         <v>2.1</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="28"/>
@@ -10489,16 +10509,16 @@
       <c r="A85" s="15"/>
       <c r="B85" s="70"/>
       <c r="C85" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="29" t="s">
         <v>220</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>221</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="29"/>
       <c r="G85" s="31"/>
       <c r="H85" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I85" s="44">
         <v>44109</v>
@@ -10561,16 +10581,16 @@
       <c r="A86" s="15"/>
       <c r="B86" s="70"/>
       <c r="C86" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="29"/>
       <c r="G86" s="31"/>
       <c r="H86" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I86" s="44">
         <v>44116</v>
@@ -10633,16 +10653,16 @@
       <c r="A87" s="15"/>
       <c r="B87" s="70"/>
       <c r="C87" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D87" s="29" t="s">
         <v>224</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>225</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="29"/>
       <c r="G87" s="31"/>
       <c r="H87" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I87" s="44">
         <v>44123</v>
@@ -10705,16 +10725,16 @@
       <c r="A88" s="15"/>
       <c r="B88" s="70"/>
       <c r="C88" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="29"/>
       <c r="G88" s="31"/>
       <c r="H88" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I88" s="44">
         <v>44130</v>
@@ -10779,7 +10799,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="28"/>
@@ -10845,16 +10865,16 @@
       <c r="A90" s="15"/>
       <c r="B90" s="70"/>
       <c r="C90" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
       <c r="G90" s="31"/>
       <c r="H90" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I90" s="44">
         <v>44123</v>
@@ -10917,16 +10937,16 @@
       <c r="A91" s="15"/>
       <c r="B91" s="70"/>
       <c r="C91" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="29"/>
       <c r="G91" s="31"/>
       <c r="H91" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I91" s="44">
         <v>44123</v>
@@ -10989,16 +11009,16 @@
       <c r="A92" s="15"/>
       <c r="B92" s="70"/>
       <c r="C92" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D92" s="29" t="s">
         <v>234</v>
-      </c>
-      <c r="D92" s="29" t="s">
-        <v>235</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="29"/>
       <c r="G92" s="31"/>
       <c r="H92" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I92" s="44">
         <v>44123</v>
@@ -11061,16 +11081,16 @@
       <c r="A93" s="15"/>
       <c r="B93" s="70"/>
       <c r="C93" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="D93" s="29" t="s">
         <v>236</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>237</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="29"/>
       <c r="G93" s="31"/>
       <c r="H93" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I93" s="44">
         <v>44123</v>
@@ -11135,7 +11155,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C94" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D94" s="50"/>
       <c r="E94" s="28"/>
@@ -11201,16 +11221,16 @@
       <c r="A95" s="15"/>
       <c r="B95" s="75"/>
       <c r="C95" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95" s="77" t="s">
         <v>239</v>
-      </c>
-      <c r="D95" s="77" t="s">
-        <v>240</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="29"/>
       <c r="G95" s="31"/>
       <c r="H95" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I95" s="44">
         <v>44137</v>
@@ -11273,16 +11293,16 @@
       <c r="A96" s="15"/>
       <c r="B96" s="75"/>
       <c r="C96" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="29"/>
       <c r="G96" s="31"/>
       <c r="H96" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I96" s="44">
         <v>44144</v>
@@ -11345,16 +11365,16 @@
       <c r="A97" s="15"/>
       <c r="B97" s="75"/>
       <c r="C97" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D97" s="77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="29"/>
       <c r="G97" s="31"/>
       <c r="H97" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I97" s="44">
         <v>44151</v>
@@ -11417,16 +11437,16 @@
       <c r="A98" s="15"/>
       <c r="B98" s="32"/>
       <c r="C98" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D98" s="78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="29"/>
       <c r="G98" s="31"/>
       <c r="H98" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I98" s="44">
         <v>44158</v>
@@ -11554,7 +11574,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C100" s="32"/>
       <c r="D100" s="29"/>
@@ -11623,7 +11643,7 @@
         <v>3.1</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="28"/>
@@ -11689,16 +11709,16 @@
       <c r="A102" s="26"/>
       <c r="B102" s="32"/>
       <c r="C102" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D102" s="29" t="s">
         <v>248</v>
-      </c>
-      <c r="D102" s="29" t="s">
-        <v>249</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="29"/>
       <c r="G102" s="31"/>
       <c r="H102" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I102" s="44">
         <v>44166</v>
@@ -11761,16 +11781,16 @@
       <c r="A103" s="26"/>
       <c r="B103" s="32"/>
       <c r="C103" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D103" s="29" t="s">
         <v>250</v>
-      </c>
-      <c r="D103" s="29" t="s">
-        <v>251</v>
       </c>
       <c r="E103" s="28"/>
       <c r="F103" s="29"/>
       <c r="G103" s="31"/>
       <c r="H103" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I103" s="44">
         <v>44172</v>
@@ -11833,16 +11853,16 @@
       <c r="A104" s="26"/>
       <c r="B104" s="32"/>
       <c r="C104" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="29"/>
       <c r="G104" s="31"/>
       <c r="H104" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I104" s="44">
         <v>44179</v>
@@ -11905,16 +11925,16 @@
       <c r="A105" s="26"/>
       <c r="B105" s="32"/>
       <c r="C105" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D105" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="D105" s="29" t="s">
-        <v>254</v>
       </c>
       <c r="E105" s="28"/>
       <c r="F105" s="29"/>
       <c r="G105" s="31"/>
       <c r="H105" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I105" s="44">
         <v>44186</v>
@@ -11979,7 +11999,7 @@
         <v>3.2</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="28"/>
@@ -12045,16 +12065,16 @@
       <c r="A107" s="26"/>
       <c r="B107" s="32"/>
       <c r="C107" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D107" s="29" t="s">
         <v>256</v>
-      </c>
-      <c r="D107" s="29" t="s">
-        <v>257</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="29"/>
       <c r="G107" s="31"/>
       <c r="H107" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I107" s="44">
         <v>44179</v>
@@ -12117,16 +12137,16 @@
       <c r="A108" s="26"/>
       <c r="B108" s="32"/>
       <c r="C108" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D108" s="29" t="s">
         <v>258</v>
-      </c>
-      <c r="D108" s="29" t="s">
-        <v>259</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
       <c r="G108" s="31"/>
       <c r="H108" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I108" s="44">
         <v>44179</v>
@@ -12189,16 +12209,16 @@
       <c r="A109" s="26"/>
       <c r="B109" s="32"/>
       <c r="C109" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="29"/>
       <c r="G109" s="31"/>
       <c r="H109" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I109" s="44">
         <v>44179</v>
@@ -12261,16 +12281,16 @@
       <c r="A110" s="26"/>
       <c r="B110" s="32"/>
       <c r="C110" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E110" s="28"/>
       <c r="F110" s="29"/>
       <c r="G110" s="31"/>
       <c r="H110" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I110" s="44">
         <v>44179</v>
@@ -12333,16 +12353,16 @@
       <c r="A111" s="26"/>
       <c r="B111" s="32"/>
       <c r="C111" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E111" s="28"/>
       <c r="F111" s="29"/>
       <c r="G111" s="31"/>
       <c r="H111" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I111" s="44">
         <v>44179</v>
@@ -12407,7 +12427,7 @@
         <v>3.3</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="28"/>
@@ -12473,16 +12493,16 @@
       <c r="A113" s="26"/>
       <c r="B113" s="32"/>
       <c r="C113" s="76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D113" s="77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="29"/>
       <c r="G113" s="31"/>
       <c r="H113" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I113" s="44">
         <v>44193</v>
@@ -12545,16 +12565,16 @@
       <c r="A114" s="26"/>
       <c r="B114" s="32"/>
       <c r="C114" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="29"/>
       <c r="G114" s="31"/>
       <c r="H114" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I114" s="44">
         <v>44200</v>
@@ -12617,16 +12637,16 @@
       <c r="A115" s="26"/>
       <c r="B115" s="32"/>
       <c r="C115" s="76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D115" s="77" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="29"/>
       <c r="G115" s="31"/>
       <c r="H115" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I115" s="44">
         <v>44207</v>
@@ -12689,16 +12709,16 @@
       <c r="A116" s="26"/>
       <c r="B116" s="32"/>
       <c r="C116" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D116" s="78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="29"/>
       <c r="G116" s="31"/>
       <c r="H116" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I116" s="44">
         <v>44214</v>
@@ -12826,7 +12846,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C118" s="32"/>
       <c r="D118" s="29"/>
@@ -12895,7 +12915,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="28"/>
@@ -12960,16 +12980,16 @@
       <c r="A120" s="13"/>
       <c r="B120" s="70"/>
       <c r="C120" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="29"/>
       <c r="G120" s="31"/>
       <c r="H120" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I120" s="44">
         <v>44221</v>
@@ -13032,16 +13052,16 @@
       <c r="A121" s="13"/>
       <c r="B121" s="70"/>
       <c r="C121" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="29"/>
       <c r="G121" s="31"/>
       <c r="H121" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I121" s="44">
         <v>44228</v>
@@ -13104,16 +13124,16 @@
       <c r="A122" s="13"/>
       <c r="B122" s="73"/>
       <c r="C122" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="29"/>
       <c r="G122" s="31"/>
       <c r="H122" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I122" s="44">
         <v>44249</v>
@@ -13176,16 +13196,16 @@
       <c r="A123" s="13"/>
       <c r="B123" s="73"/>
       <c r="C123" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D123" s="29" t="s">
         <v>283</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>284</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="29"/>
       <c r="G123" s="31"/>
       <c r="H123" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I123" s="44">
         <v>44256</v>
@@ -13250,7 +13270,7 @@
         <v>4.2</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D124" s="29"/>
       <c r="E124" s="28"/>
@@ -13316,16 +13336,16 @@
       <c r="A125" s="26"/>
       <c r="B125" s="32"/>
       <c r="C125" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="29"/>
       <c r="G125" s="31"/>
       <c r="H125" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I125" s="44">
         <v>44263</v>
@@ -13388,16 +13408,16 @@
       <c r="A126" s="26"/>
       <c r="B126" s="32"/>
       <c r="C126" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="D126" s="29" t="s">
         <v>287</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>288</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="29"/>
       <c r="G126" s="31"/>
       <c r="H126" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I126" s="44">
         <v>44270</v>
@@ -13460,16 +13480,16 @@
       <c r="A127" s="26"/>
       <c r="B127" s="32"/>
       <c r="C127" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="29"/>
       <c r="G127" s="31"/>
       <c r="H127" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I127" s="44">
         <v>44277</v>
@@ -13532,16 +13552,16 @@
       <c r="A128" s="26"/>
       <c r="B128" s="32"/>
       <c r="C128" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="29"/>
       <c r="G128" s="31"/>
       <c r="H128" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I128" s="44">
         <v>44284</v>
@@ -13669,7 +13689,7 @@
         <v>5</v>
       </c>
       <c r="B130" s="70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C130" s="70"/>
       <c r="D130" s="29"/>
@@ -13801,7 +13821,7 @@
         <v>6</v>
       </c>
       <c r="B132" s="70" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C132" s="70"/>
       <c r="D132" s="29"/>
@@ -20834,6 +20854,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20850,17 +20881,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="398">
   <si>
     <t>标识号</t>
   </si>
@@ -754,698 +754,702 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>江长胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板（八位）提供三块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3直流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统子项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义目标和需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项目任务分解、具体实施进度安排</t>
+  </si>
+  <si>
+    <t>MAC管理系统接口协议确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各PDU与MAC管理系统协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-PDU软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件界面原型设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口协议及MAC地址创建功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能联调及阶段收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备出厂恢复管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义目标、确定需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复接口协议确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复系统总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDU出厂恢复接口协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、SI-PDU出厂恢复功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/V3出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复管理系统项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口协议及恢复设置检测功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">核心功能、日志记录等功能实现 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统联调、功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">核心功能、日志记录实现 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统联调、功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定目标、收集需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测方案讨论和初步确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础实验的验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各PDU通讯功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.3</t>
+  </si>
+  <si>
+    <t>4.2.4</t>
+  </si>
+  <si>
+    <t>核心功能、关键业务功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能完善、系统调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产质量检测系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台服务管理平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对IP V1校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>1.6.1.3</t>
+  </si>
+  <si>
+    <t>1.6.2.1</t>
+  </si>
+  <si>
+    <t>1.6.2.2</t>
+  </si>
+  <si>
+    <t>1.6.2.3</t>
+  </si>
+  <si>
+    <t>1.6.3.1</t>
+  </si>
+  <si>
+    <t>1.6.3.2</t>
+  </si>
+  <si>
+    <t>1.6.3.3</t>
+  </si>
+  <si>
+    <t>1.6.4</t>
+  </si>
+  <si>
+    <t>1.6.4.1</t>
+  </si>
+  <si>
+    <t>1.6.4.2</t>
+  </si>
+  <si>
+    <t>1.6.4.3</t>
+  </si>
+  <si>
+    <t>SI、BM表头软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、BM直流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李科杰</t>
+  </si>
+  <si>
+    <t>李科杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、IP、BM设备校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头校准部分修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段联调及收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统增加MPDU/RPDU校准功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>1.5.2.3</t>
+  </si>
+  <si>
+    <t>1.6.4.4</t>
+  </si>
+  <si>
+    <t>20 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU执行板校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件设备准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU单片机软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">磁保持执行板数据读取开关控制 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作说明书编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持校准联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板联调、正式发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统阶段成果交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇、彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU执行板软件联调、正式发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度/ZPDU执行板联调、发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2.4</t>
+  </si>
+  <si>
+    <t>1.5.2.5</t>
+  </si>
+  <si>
+    <t>1.5.2.6</t>
+  </si>
+  <si>
+    <t>欧阳玲军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头校准前期准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1.4</t>
+  </si>
+  <si>
+    <t>1.6.1.5</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.5</t>
+  </si>
+  <si>
+    <t>1.6.5</t>
+  </si>
+  <si>
+    <t>1.6.5.1</t>
+  </si>
+  <si>
+    <t>1.6.5.2</t>
+  </si>
+  <si>
+    <t>1.6.5.3</t>
+  </si>
+  <si>
+    <t>RPDU设备校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统对MPDU磁保持执行板功能支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3单三相直流协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作说明书编写及阶段成果交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>1.7.2.1</t>
+  </si>
+  <si>
+    <t>1.7.2.2</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>1.7.3.1</t>
+  </si>
+  <si>
+    <t>1.7.3.2</t>
+  </si>
+  <si>
+    <t>1.7.4</t>
+  </si>
+  <si>
+    <t>1.7.4.1</t>
+  </si>
+  <si>
+    <t>1.7.4.2</t>
+  </si>
+  <si>
+    <t>1.7.4.3</t>
+  </si>
+  <si>
+    <t>1.7.7</t>
+  </si>
+  <si>
+    <t>1.7.7.1</t>
+  </si>
+  <si>
+    <t>IP-V1/3序列号功能增加、单相交流校准改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3交流三相校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、BM序列号功能增加、单相交流校准改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、BM交流三相校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头校准及验证方案 和 ZPDU磁保持执行板联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP校准方法调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流校准方法调研 和 MPDU普通执行板联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、SI校准方法调研，包单三相交直流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流三相、直流标准源软件控制实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度/ZPDU执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP表头软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1 天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>江长胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板（八位）提供三块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/3直流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统子项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统子项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义目标和需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子项目任务分解、具体实施进度安排</t>
-  </si>
-  <si>
-    <t>MAC管理系统接口协议确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统总体设计方案编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各PDU与MAC管理系统协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-PDU软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU主控软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU主控软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU主控软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件界面原型设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口协议及MAC地址创建功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能联调及阶段收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备出厂恢复管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义目标、确定需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复接口协议确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复系统总体设计方案编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDU出厂恢复接口协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM、SI-PDU出厂恢复功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/V3出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复管理系统项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复系统软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口协议及恢复设置检测功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">核心功能、日志记录等功能实现 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统联调、功能完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">核心功能、日志记录实现 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统联调、功能完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测系统项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定目标、收集需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测方案讨论和初步确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体设计方案编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础实验的验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测系统软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各PDU通讯功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.3</t>
-  </si>
-  <si>
-    <t>4.2.4</t>
-  </si>
-  <si>
-    <t>核心功能、关键业务功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能完善、系统调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统子项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产质量检测系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台服务管理平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对IP V1校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2</t>
-  </si>
-  <si>
-    <t>1.6.1.3</t>
-  </si>
-  <si>
-    <t>1.6.2.1</t>
-  </si>
-  <si>
-    <t>1.6.2.2</t>
-  </si>
-  <si>
-    <t>1.6.2.3</t>
-  </si>
-  <si>
-    <t>1.6.3.1</t>
-  </si>
-  <si>
-    <t>1.6.3.2</t>
-  </si>
-  <si>
-    <t>1.6.3.3</t>
-  </si>
-  <si>
-    <t>1.6.4</t>
-  </si>
-  <si>
-    <t>1.6.4.1</t>
-  </si>
-  <si>
-    <t>1.6.4.2</t>
-  </si>
-  <si>
-    <t>1.6.4.3</t>
-  </si>
-  <si>
-    <t>SI、BM表头软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI、BM直流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李科杰</t>
-  </si>
-  <si>
-    <t>李科杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI、IP、BM设备校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头校准部分修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段联调及收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统增加MPDU/RPDU校准功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
-    <t>1.5.2.3</t>
-  </si>
-  <si>
-    <t>1.6.4.4</t>
-  </si>
-  <si>
-    <t>20 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU执行板校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件设备准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU单片机软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测系统子项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">磁保持执行板数据读取开关控制 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作说明书编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持校准联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板联调、正式发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统阶段成果交付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇、彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU执行板软件联调、正式发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高密度/ZPDU执行板联调、发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.4</t>
-  </si>
-  <si>
-    <t>1.5.2.5</t>
-  </si>
-  <si>
-    <t>1.5.2.6</t>
-  </si>
-  <si>
-    <t>欧阳玲军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表头校准前期准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1.4</t>
-  </si>
-  <si>
-    <t>1.6.1.5</t>
-  </si>
-  <si>
-    <t>1.6.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.5</t>
-  </si>
-  <si>
-    <t>1.6.5</t>
-  </si>
-  <si>
-    <t>1.6.5.1</t>
-  </si>
-  <si>
-    <t>1.6.5.2</t>
-  </si>
-  <si>
-    <t>1.6.5.3</t>
-  </si>
-  <si>
-    <t>RPDU设备校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统对MPDU磁保持执行板功能支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/3单三相直流协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作说明书编写及阶段成果交付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7.2</t>
-  </si>
-  <si>
-    <t>1.7.2.1</t>
-  </si>
-  <si>
-    <t>1.7.2.2</t>
-  </si>
-  <si>
-    <t>1.7.3</t>
-  </si>
-  <si>
-    <t>1.7.3.1</t>
-  </si>
-  <si>
-    <t>1.7.3.2</t>
-  </si>
-  <si>
-    <t>1.7.4</t>
-  </si>
-  <si>
-    <t>1.7.4.1</t>
-  </si>
-  <si>
-    <t>1.7.4.2</t>
-  </si>
-  <si>
-    <t>1.7.4.3</t>
-  </si>
-  <si>
-    <t>1.7.7</t>
-  </si>
-  <si>
-    <t>1.7.7.1</t>
-  </si>
-  <si>
-    <t>IP-V1/3序列号功能增加、单相交流校准改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/3交流三相校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI、BM序列号功能增加、单相交流校准改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI、BM交流三相校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表头校准及验证方案 和 ZPDU磁保持执行板联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP校准方法调研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直流校准方法调研 和 MPDU普通执行板联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM、SI校准方法调研，包单三相交直流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交流三相、直流标准源软件控制实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高密度/ZPDU执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP表头软件修改</t>
+    <t>10 天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4141,10 +4145,10 @@
   <dimension ref="A1:BL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4191,7 +4195,7 @@
       <c r="B2" s="102"/>
       <c r="C2" s="103">
         <f ca="1">TODAY()</f>
-        <v>44046</v>
+        <v>44050</v>
       </c>
       <c r="D2" s="103"/>
       <c r="K2" s="102" t="s">
@@ -4532,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -5818,7 +5822,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="31"/>
       <c r="H21" s="43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I21" s="44">
         <v>44004</v>
@@ -6369,18 +6373,28 @@
         <v>1.5</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="80"/>
       <c r="F28" s="29"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
+      <c r="H28" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="I28" s="44">
+        <v>44032</v>
+      </c>
+      <c r="J28" s="44">
+        <v>44043</v>
+      </c>
+      <c r="K28" s="44">
+        <v>44043</v>
+      </c>
       <c r="L28" s="42"/>
-      <c r="M28" s="39"/>
+      <c r="M28" s="39">
+        <v>1</v>
+      </c>
       <c r="N28" s="62"/>
       <c r="O28" s="66"/>
       <c r="P28" s="10"/>
@@ -6431,14 +6445,14 @@
       <c r="BI28" s="10"/>
       <c r="BJ28" s="10"/>
     </row>
-    <row r="29" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="29" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>323</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>324</v>
       </c>
       <c r="E29" s="80"/>
       <c r="F29" s="29"/>
@@ -6499,19 +6513,19 @@
       <c r="BI29" s="10"/>
       <c r="BJ29" s="10"/>
     </row>
-    <row r="30" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="30" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="D30" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="31"/>
       <c r="H30" s="43" t="s">
-        <v>213</v>
+        <v>396</v>
       </c>
       <c r="I30" s="44">
         <v>44029</v>
@@ -6527,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O30" s="66"/>
       <c r="P30" s="10"/>
@@ -6578,14 +6592,14 @@
       <c r="BI30" s="10"/>
       <c r="BJ30" s="10"/>
     </row>
-    <row r="31" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="31" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>326</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>327</v>
       </c>
       <c r="E31" s="80"/>
       <c r="F31" s="29"/>
@@ -6646,20 +6660,20 @@
       <c r="BI31" s="10"/>
       <c r="BJ31" s="10"/>
     </row>
-    <row r="32" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="32" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="32"/>
       <c r="D32" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="31"/>
       <c r="H32" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I32" s="44">
         <v>44032</v>
@@ -6671,7 +6685,7 @@
         <v>44039</v>
       </c>
       <c r="L32" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M32" s="39">
         <v>1</v>
@@ -6728,20 +6742,20 @@
       <c r="BI32" s="10"/>
       <c r="BJ32" s="10"/>
     </row>
-    <row r="33" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="33" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="32"/>
       <c r="D33" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="31"/>
       <c r="H33" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I33" s="44">
         <v>44039</v>
@@ -6753,7 +6767,7 @@
         <v>44041</v>
       </c>
       <c r="L33" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M33" s="39">
         <v>1</v>
@@ -6810,20 +6824,20 @@
       <c r="BI33" s="10"/>
       <c r="BJ33" s="10"/>
     </row>
-    <row r="34" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="34" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A34" s="26"/>
       <c r="B34" s="27"/>
       <c r="C34" s="32"/>
       <c r="D34" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="31"/>
       <c r="H34" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I34" s="44">
         <v>44041</v>
@@ -6835,7 +6849,7 @@
         <v>44042</v>
       </c>
       <c r="L34" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M34" s="39">
         <v>1</v>
@@ -6892,20 +6906,20 @@
       <c r="BI34" s="10"/>
       <c r="BJ34" s="10"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="35" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A35" s="26"/>
       <c r="B35" s="27"/>
       <c r="C35" s="32"/>
       <c r="D35" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="31"/>
       <c r="H35" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I35" s="44">
         <v>44043</v>
@@ -6917,7 +6931,7 @@
         <v>44046</v>
       </c>
       <c r="L35" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M35" s="39">
         <v>1</v>
@@ -6974,20 +6988,20 @@
       <c r="BI35" s="10"/>
       <c r="BJ35" s="10"/>
     </row>
-    <row r="36" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="36" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A36" s="26"/>
       <c r="B36" s="27"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="31"/>
       <c r="H36" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I36" s="44">
         <v>44047</v>
@@ -6997,11 +7011,11 @@
       </c>
       <c r="K36" s="45"/>
       <c r="L36" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M36" s="39"/>
       <c r="N36" s="62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O36" s="66"/>
       <c r="P36" s="10"/>
@@ -7052,20 +7066,20 @@
       <c r="BI36" s="10"/>
       <c r="BJ36" s="10"/>
     </row>
-    <row r="37" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="37" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="31"/>
       <c r="H37" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I37" s="44">
         <v>44049</v>
@@ -7075,7 +7089,7 @@
       </c>
       <c r="K37" s="45"/>
       <c r="L37" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M37" s="39"/>
       <c r="N37" s="62" t="s">
@@ -7130,14 +7144,14 @@
       <c r="BI37" s="10"/>
       <c r="BJ37" s="10"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="38" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
       <c r="C38" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
@@ -7198,20 +7212,20 @@
       <c r="BI38" s="10"/>
       <c r="BJ38" s="10"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="39" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>335</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>336</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="31"/>
       <c r="H39" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I39" s="44">
         <v>44032</v>
@@ -7227,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O39" s="66"/>
       <c r="P39" s="10"/>
@@ -7278,15 +7292,15 @@
       <c r="BI39" s="10"/>
       <c r="BJ39" s="10"/>
     </row>
-    <row r="40" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="40" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A40" s="26"/>
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>337</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>338</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="31"/>
@@ -7307,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O40" s="66"/>
       <c r="P40" s="10"/>
@@ -7358,20 +7372,20 @@
       <c r="BI40" s="10"/>
       <c r="BJ40" s="10"/>
     </row>
-    <row r="41" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="41" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A41" s="26"/>
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="31"/>
       <c r="H41" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I41" s="44">
         <v>44039</v>
@@ -7383,13 +7397,13 @@
         <v>44041</v>
       </c>
       <c r="L41" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M41" s="39">
         <v>1</v>
       </c>
       <c r="N41" s="62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O41" s="66"/>
       <c r="P41" s="10"/>
@@ -7440,20 +7454,20 @@
       <c r="BI41" s="10"/>
       <c r="BJ41" s="10"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="42" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="31"/>
       <c r="H42" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I42" s="44">
         <v>44041</v>
@@ -7465,13 +7479,13 @@
         <v>44043</v>
       </c>
       <c r="L42" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M42" s="39">
         <v>1</v>
       </c>
       <c r="N42" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O42" s="66"/>
       <c r="P42" s="10"/>
@@ -7522,13 +7536,13 @@
       <c r="BI42" s="10"/>
       <c r="BJ42" s="10"/>
     </row>
-    <row r="43" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="43" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A43" s="26"/>
       <c r="B43" s="32">
         <v>1.6</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="28"/>
@@ -7594,10 +7608,10 @@
       <c r="A44" s="26"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
@@ -7663,15 +7677,15 @@
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="31"/>
       <c r="H45" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I45" s="44">
         <v>44046</v>
@@ -7679,11 +7693,15 @@
       <c r="J45" s="44">
         <v>44048</v>
       </c>
-      <c r="K45" s="45"/>
+      <c r="K45" s="44">
+        <v>44048</v>
+      </c>
       <c r="L45" s="42"/>
-      <c r="M45" s="40"/>
+      <c r="M45" s="39">
+        <v>1</v>
+      </c>
       <c r="N45" s="63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O45" s="66"/>
       <c r="P45" s="10"/>
@@ -7739,15 +7757,15 @@
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
       <c r="D46" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="31"/>
       <c r="H46" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I46" s="44">
         <v>44049</v>
@@ -7755,11 +7773,15 @@
       <c r="J46" s="44">
         <v>44050</v>
       </c>
-      <c r="K46" s="45"/>
+      <c r="K46" s="44">
+        <v>44050</v>
+      </c>
       <c r="L46" s="42"/>
-      <c r="M46" s="40"/>
+      <c r="M46" s="39">
+        <v>1</v>
+      </c>
       <c r="N46" s="63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O46" s="66"/>
       <c r="P46" s="10"/>
@@ -7815,15 +7837,15 @@
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
       <c r="D47" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="31"/>
       <c r="H47" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I47" s="44">
         <v>44046</v>
@@ -7831,11 +7853,15 @@
       <c r="J47" s="44">
         <v>44050</v>
       </c>
-      <c r="K47" s="45"/>
+      <c r="K47" s="44">
+        <v>44050</v>
+      </c>
       <c r="L47" s="42"/>
-      <c r="M47" s="40"/>
+      <c r="M47" s="39">
+        <v>1</v>
+      </c>
       <c r="N47" s="63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O47" s="66"/>
       <c r="P47" s="10"/>
@@ -7891,15 +7917,15 @@
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="D48" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="31"/>
       <c r="H48" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I48" s="44">
         <v>44053</v>
@@ -7909,9 +7935,11 @@
       </c>
       <c r="K48" s="45"/>
       <c r="L48" s="42"/>
-      <c r="M48" s="40"/>
+      <c r="M48" s="39">
+        <v>1</v>
+      </c>
       <c r="N48" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O48" s="66"/>
       <c r="P48" s="10"/>
@@ -7967,15 +7995,15 @@
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
       <c r="D49" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="31"/>
       <c r="H49" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I49" s="44">
         <v>44053</v>
@@ -7985,9 +8013,11 @@
       </c>
       <c r="K49" s="45"/>
       <c r="L49" s="42"/>
-      <c r="M49" s="40"/>
+      <c r="M49" s="39">
+        <v>1</v>
+      </c>
       <c r="N49" s="63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O49" s="66"/>
       <c r="P49" s="10"/>
@@ -8042,10 +8072,10 @@
       <c r="A50" s="26"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="D50" s="29" t="s">
         <v>395</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>396</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="29"/>
@@ -8111,15 +8141,15 @@
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
       <c r="D51" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F51" s="69"/>
       <c r="G51" s="31"/>
       <c r="H51" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I51" s="44">
         <v>44053</v>
@@ -8129,7 +8159,7 @@
       <c r="L51" s="42"/>
       <c r="M51" s="40"/>
       <c r="N51" s="63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O51" s="66"/>
       <c r="P51" s="10"/>
@@ -8185,15 +8215,15 @@
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
       <c r="D52" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F52" s="69"/>
       <c r="G52" s="31"/>
       <c r="H52" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I52" s="44">
         <v>44060</v>
@@ -8203,7 +8233,7 @@
       <c r="L52" s="42"/>
       <c r="M52" s="40"/>
       <c r="N52" s="63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O52" s="66"/>
       <c r="P52" s="10"/>
@@ -8259,15 +8289,15 @@
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="D53" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="31"/>
       <c r="H53" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I53" s="44">
         <v>44067</v>
@@ -8277,7 +8307,7 @@
       <c r="L53" s="42"/>
       <c r="M53" s="40"/>
       <c r="N53" s="63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O53" s="66"/>
       <c r="P53" s="10"/>
@@ -8332,10 +8362,10 @@
       <c r="A54" s="26"/>
       <c r="B54" s="32"/>
       <c r="C54" s="68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="50"/>
@@ -8401,15 +8431,15 @@
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
       <c r="D55" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="31"/>
       <c r="H55" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I55" s="44">
         <v>44053</v>
@@ -8475,15 +8505,15 @@
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
       <c r="D56" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="31"/>
       <c r="H56" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I56" s="44">
         <v>44060</v>
@@ -8549,15 +8579,15 @@
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
       <c r="D57" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="31"/>
       <c r="H57" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I57" s="44">
         <v>44067</v>
@@ -8622,7 +8652,7 @@
       <c r="A58" s="26"/>
       <c r="B58" s="32"/>
       <c r="C58" s="68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>186</v>
@@ -8691,7 +8721,7 @@
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
       <c r="D59" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E59" s="28" t="s">
         <v>183</v>
@@ -8699,7 +8729,7 @@
       <c r="F59" s="29"/>
       <c r="G59" s="31"/>
       <c r="H59" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I59" s="44">
         <v>44053</v>
@@ -8765,7 +8795,7 @@
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
       <c r="D60" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>203</v>
@@ -8773,7 +8803,7 @@
       <c r="F60" s="29"/>
       <c r="G60" s="31"/>
       <c r="H60" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I60" s="44">
         <v>44060</v>
@@ -8839,7 +8869,7 @@
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
       <c r="D61" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>184</v>
@@ -8847,7 +8877,7 @@
       <c r="F61" s="29"/>
       <c r="G61" s="31"/>
       <c r="H61" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I61" s="44">
         <v>44067</v>
@@ -8855,7 +8885,7 @@
       <c r="J61" s="44"/>
       <c r="K61" s="45"/>
       <c r="L61" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M61" s="40"/>
       <c r="N61" s="63" t="s">
@@ -8915,15 +8945,15 @@
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
       <c r="D62" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="31"/>
       <c r="H62" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I62" s="44">
         <v>44053</v>
@@ -8989,15 +9019,15 @@
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
       <c r="D63" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="31"/>
       <c r="H63" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I63" s="44">
         <v>44060</v>
@@ -9005,7 +9035,7 @@
       <c r="J63" s="44"/>
       <c r="K63" s="45"/>
       <c r="L63" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M63" s="40"/>
       <c r="N63" s="63" t="s">
@@ -9065,7 +9095,7 @@
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
       <c r="D64" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E64" s="28" t="s">
         <v>190</v>
@@ -9073,7 +9103,7 @@
       <c r="F64" s="50"/>
       <c r="G64" s="31"/>
       <c r="H64" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I64" s="44">
         <v>44067</v>
@@ -9138,10 +9168,10 @@
       <c r="A65" s="26"/>
       <c r="B65" s="32"/>
       <c r="C65" s="68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="50"/>
@@ -9207,14 +9237,14 @@
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
       <c r="D66" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E66" s="28" t="s">
         <v>193</v>
       </c>
       <c r="G66" s="31"/>
       <c r="H66" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I66" s="44">
         <v>44074</v>
@@ -9280,14 +9310,14 @@
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
       <c r="D67" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E67" s="28" t="s">
         <v>194</v>
       </c>
       <c r="G67" s="31"/>
       <c r="H67" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I67" s="44">
         <v>44074</v>
@@ -9297,7 +9327,7 @@
       <c r="L67" s="42"/>
       <c r="M67" s="40"/>
       <c r="N67" s="63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O67" s="66"/>
       <c r="P67" s="10"/>
@@ -9353,14 +9383,14 @@
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
       <c r="D68" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G68" s="31"/>
       <c r="H68" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I68" s="44">
         <v>44081</v>
@@ -9427,7 +9457,7 @@
         <v>1.7</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="28"/>
@@ -9493,10 +9523,10 @@
       <c r="A70" s="26"/>
       <c r="B70" s="70"/>
       <c r="C70" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="29"/>
@@ -9562,7 +9592,7 @@
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
       <c r="D71" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E71" s="28" t="s">
         <v>198</v>
@@ -9630,7 +9660,7 @@
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
       <c r="D72" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E72" s="28" t="s">
         <v>199</v>
@@ -9697,10 +9727,10 @@
       <c r="A73" s="26"/>
       <c r="B73" s="70"/>
       <c r="C73" s="70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="29"/>
@@ -9766,7 +9796,7 @@
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
       <c r="D74" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>200</v>
@@ -9834,7 +9864,7 @@
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
       <c r="D75" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E75" s="28" t="s">
         <v>201</v>
@@ -9901,10 +9931,10 @@
       <c r="A76" s="26"/>
       <c r="B76" s="70"/>
       <c r="C76" s="70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="29"/>
@@ -9970,7 +10000,7 @@
       <c r="B77" s="32"/>
       <c r="C77" s="32"/>
       <c r="D77" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E77" s="28" t="s">
         <v>204</v>
@@ -10038,7 +10068,7 @@
       <c r="B78" s="32"/>
       <c r="C78" s="32"/>
       <c r="D78" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E78" s="28" t="s">
         <v>205</v>
@@ -10106,7 +10136,7 @@
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
       <c r="D79" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E79" s="28" t="s">
         <v>206</v>
@@ -10173,10 +10203,10 @@
       <c r="A80" s="26"/>
       <c r="B80" s="70"/>
       <c r="C80" s="79" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="29"/>
@@ -10242,7 +10272,7 @@
       <c r="B81" s="32"/>
       <c r="C81" s="32"/>
       <c r="D81" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E81" s="28" t="s">
         <v>207</v>
@@ -10374,7 +10404,7 @@
         <v>2</v>
       </c>
       <c r="B83" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C83" s="73"/>
       <c r="D83" s="29"/>
@@ -10443,7 +10473,7 @@
         <v>2.1</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="28"/>
@@ -10509,16 +10539,16 @@
       <c r="A85" s="15"/>
       <c r="B85" s="70"/>
       <c r="C85" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D85" s="29" t="s">
         <v>219</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>220</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="29"/>
       <c r="G85" s="31"/>
       <c r="H85" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I85" s="44">
         <v>44109</v>
@@ -10581,16 +10611,16 @@
       <c r="A86" s="15"/>
       <c r="B86" s="70"/>
       <c r="C86" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="29"/>
       <c r="G86" s="31"/>
       <c r="H86" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I86" s="44">
         <v>44116</v>
@@ -10653,16 +10683,16 @@
       <c r="A87" s="15"/>
       <c r="B87" s="70"/>
       <c r="C87" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D87" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>224</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="29"/>
       <c r="G87" s="31"/>
       <c r="H87" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I87" s="44">
         <v>44123</v>
@@ -10725,16 +10755,16 @@
       <c r="A88" s="15"/>
       <c r="B88" s="70"/>
       <c r="C88" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="29"/>
       <c r="G88" s="31"/>
       <c r="H88" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I88" s="44">
         <v>44130</v>
@@ -10799,7 +10829,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="28"/>
@@ -10865,16 +10895,16 @@
       <c r="A90" s="15"/>
       <c r="B90" s="70"/>
       <c r="C90" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
       <c r="G90" s="31"/>
       <c r="H90" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I90" s="44">
         <v>44123</v>
@@ -10937,16 +10967,16 @@
       <c r="A91" s="15"/>
       <c r="B91" s="70"/>
       <c r="C91" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="29"/>
       <c r="G91" s="31"/>
       <c r="H91" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I91" s="44">
         <v>44123</v>
@@ -11009,16 +11039,16 @@
       <c r="A92" s="15"/>
       <c r="B92" s="70"/>
       <c r="C92" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92" s="29" t="s">
         <v>233</v>
-      </c>
-      <c r="D92" s="29" t="s">
-        <v>234</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="29"/>
       <c r="G92" s="31"/>
       <c r="H92" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I92" s="44">
         <v>44123</v>
@@ -11081,16 +11111,16 @@
       <c r="A93" s="15"/>
       <c r="B93" s="70"/>
       <c r="C93" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D93" s="29" t="s">
         <v>235</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>236</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="29"/>
       <c r="G93" s="31"/>
       <c r="H93" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I93" s="44">
         <v>44123</v>
@@ -11155,7 +11185,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C94" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D94" s="50"/>
       <c r="E94" s="28"/>
@@ -11221,16 +11251,16 @@
       <c r="A95" s="15"/>
       <c r="B95" s="75"/>
       <c r="C95" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D95" s="77" t="s">
         <v>238</v>
-      </c>
-      <c r="D95" s="77" t="s">
-        <v>239</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="29"/>
       <c r="G95" s="31"/>
       <c r="H95" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I95" s="44">
         <v>44137</v>
@@ -11293,16 +11323,16 @@
       <c r="A96" s="15"/>
       <c r="B96" s="75"/>
       <c r="C96" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="29"/>
       <c r="G96" s="31"/>
       <c r="H96" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I96" s="44">
         <v>44144</v>
@@ -11365,16 +11395,16 @@
       <c r="A97" s="15"/>
       <c r="B97" s="75"/>
       <c r="C97" s="76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D97" s="77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="29"/>
       <c r="G97" s="31"/>
       <c r="H97" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I97" s="44">
         <v>44151</v>
@@ -11437,16 +11467,16 @@
       <c r="A98" s="15"/>
       <c r="B98" s="32"/>
       <c r="C98" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D98" s="78" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="29"/>
       <c r="G98" s="31"/>
       <c r="H98" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I98" s="44">
         <v>44158</v>
@@ -11574,7 +11604,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C100" s="32"/>
       <c r="D100" s="29"/>
@@ -11643,7 +11673,7 @@
         <v>3.1</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D101" s="29"/>
       <c r="E101" s="28"/>
@@ -11709,16 +11739,16 @@
       <c r="A102" s="26"/>
       <c r="B102" s="32"/>
       <c r="C102" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D102" s="29" t="s">
         <v>247</v>
-      </c>
-      <c r="D102" s="29" t="s">
-        <v>248</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="29"/>
       <c r="G102" s="31"/>
       <c r="H102" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I102" s="44">
         <v>44166</v>
@@ -11781,16 +11811,16 @@
       <c r="A103" s="26"/>
       <c r="B103" s="32"/>
       <c r="C103" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D103" s="29" t="s">
         <v>249</v>
-      </c>
-      <c r="D103" s="29" t="s">
-        <v>250</v>
       </c>
       <c r="E103" s="28"/>
       <c r="F103" s="29"/>
       <c r="G103" s="31"/>
       <c r="H103" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I103" s="44">
         <v>44172</v>
@@ -11853,16 +11883,16 @@
       <c r="A104" s="26"/>
       <c r="B104" s="32"/>
       <c r="C104" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="29"/>
       <c r="G104" s="31"/>
       <c r="H104" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I104" s="44">
         <v>44179</v>
@@ -11925,16 +11955,16 @@
       <c r="A105" s="26"/>
       <c r="B105" s="32"/>
       <c r="C105" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D105" s="29" t="s">
         <v>252</v>
-      </c>
-      <c r="D105" s="29" t="s">
-        <v>253</v>
       </c>
       <c r="E105" s="28"/>
       <c r="F105" s="29"/>
       <c r="G105" s="31"/>
       <c r="H105" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I105" s="44">
         <v>44186</v>
@@ -11999,7 +12029,7 @@
         <v>3.2</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="28"/>
@@ -12065,16 +12095,16 @@
       <c r="A107" s="26"/>
       <c r="B107" s="32"/>
       <c r="C107" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" s="29" t="s">
         <v>255</v>
-      </c>
-      <c r="D107" s="29" t="s">
-        <v>256</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="29"/>
       <c r="G107" s="31"/>
       <c r="H107" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I107" s="44">
         <v>44179</v>
@@ -12137,16 +12167,16 @@
       <c r="A108" s="26"/>
       <c r="B108" s="32"/>
       <c r="C108" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D108" s="29" t="s">
         <v>257</v>
-      </c>
-      <c r="D108" s="29" t="s">
-        <v>258</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
       <c r="G108" s="31"/>
       <c r="H108" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I108" s="44">
         <v>44179</v>
@@ -12209,16 +12239,16 @@
       <c r="A109" s="26"/>
       <c r="B109" s="32"/>
       <c r="C109" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="29"/>
       <c r="G109" s="31"/>
       <c r="H109" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I109" s="44">
         <v>44179</v>
@@ -12281,16 +12311,16 @@
       <c r="A110" s="26"/>
       <c r="B110" s="32"/>
       <c r="C110" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E110" s="28"/>
       <c r="F110" s="29"/>
       <c r="G110" s="31"/>
       <c r="H110" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I110" s="44">
         <v>44179</v>
@@ -12353,16 +12383,16 @@
       <c r="A111" s="26"/>
       <c r="B111" s="32"/>
       <c r="C111" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E111" s="28"/>
       <c r="F111" s="29"/>
       <c r="G111" s="31"/>
       <c r="H111" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I111" s="44">
         <v>44179</v>
@@ -12427,7 +12457,7 @@
         <v>3.3</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="28"/>
@@ -12493,16 +12523,16 @@
       <c r="A113" s="26"/>
       <c r="B113" s="32"/>
       <c r="C113" s="76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D113" s="77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="29"/>
       <c r="G113" s="31"/>
       <c r="H113" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I113" s="44">
         <v>44193</v>
@@ -12565,16 +12595,16 @@
       <c r="A114" s="26"/>
       <c r="B114" s="32"/>
       <c r="C114" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="29"/>
       <c r="G114" s="31"/>
       <c r="H114" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I114" s="44">
         <v>44200</v>
@@ -12637,16 +12667,16 @@
       <c r="A115" s="26"/>
       <c r="B115" s="32"/>
       <c r="C115" s="76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D115" s="77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="29"/>
       <c r="G115" s="31"/>
       <c r="H115" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I115" s="44">
         <v>44207</v>
@@ -12709,16 +12739,16 @@
       <c r="A116" s="26"/>
       <c r="B116" s="32"/>
       <c r="C116" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D116" s="78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="29"/>
       <c r="G116" s="31"/>
       <c r="H116" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I116" s="44">
         <v>44214</v>
@@ -12846,7 +12876,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C118" s="32"/>
       <c r="D118" s="29"/>
@@ -12915,7 +12945,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="28"/>
@@ -12980,16 +13010,16 @@
       <c r="A120" s="13"/>
       <c r="B120" s="70"/>
       <c r="C120" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="29"/>
       <c r="G120" s="31"/>
       <c r="H120" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I120" s="44">
         <v>44221</v>
@@ -13052,16 +13082,16 @@
       <c r="A121" s="13"/>
       <c r="B121" s="70"/>
       <c r="C121" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="29"/>
       <c r="G121" s="31"/>
       <c r="H121" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I121" s="44">
         <v>44228</v>
@@ -13124,16 +13154,16 @@
       <c r="A122" s="13"/>
       <c r="B122" s="73"/>
       <c r="C122" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="29"/>
       <c r="G122" s="31"/>
       <c r="H122" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I122" s="44">
         <v>44249</v>
@@ -13196,16 +13226,16 @@
       <c r="A123" s="13"/>
       <c r="B123" s="73"/>
       <c r="C123" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D123" s="29" t="s">
         <v>282</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>283</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="29"/>
       <c r="G123" s="31"/>
       <c r="H123" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I123" s="44">
         <v>44256</v>
@@ -13270,7 +13300,7 @@
         <v>4.2</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D124" s="29"/>
       <c r="E124" s="28"/>
@@ -13336,16 +13366,16 @@
       <c r="A125" s="26"/>
       <c r="B125" s="32"/>
       <c r="C125" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="29"/>
       <c r="G125" s="31"/>
       <c r="H125" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I125" s="44">
         <v>44263</v>
@@ -13408,16 +13438,16 @@
       <c r="A126" s="26"/>
       <c r="B126" s="32"/>
       <c r="C126" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D126" s="29" t="s">
         <v>286</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>287</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="29"/>
       <c r="G126" s="31"/>
       <c r="H126" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I126" s="44">
         <v>44270</v>
@@ -13480,16 +13510,16 @@
       <c r="A127" s="26"/>
       <c r="B127" s="32"/>
       <c r="C127" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="29"/>
       <c r="G127" s="31"/>
       <c r="H127" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I127" s="44">
         <v>44277</v>
@@ -13552,16 +13582,16 @@
       <c r="A128" s="26"/>
       <c r="B128" s="32"/>
       <c r="C128" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="29"/>
       <c r="G128" s="31"/>
       <c r="H128" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I128" s="44">
         <v>44284</v>
@@ -13689,7 +13719,7 @@
         <v>5</v>
       </c>
       <c r="B130" s="70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C130" s="70"/>
       <c r="D130" s="29"/>
@@ -13821,7 +13851,7 @@
         <v>6</v>
       </c>
       <c r="B132" s="70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C132" s="70"/>
       <c r="D132" s="29"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
@@ -2035,8 +2035,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2044,8 +2050,20 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2066,12 +2084,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2080,26 +2092,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2602,7 +2602,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2653,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2712,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2771,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2830,7 +2830,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2889,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2940,7 +2940,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +2999,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3058,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,7 +3109,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3168,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3227,7 +3227,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3278,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3337,7 +3337,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3396,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3455,7 +3455,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3514,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3573,7 +3573,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3624,7 +3624,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,7 +3675,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3726,7 +3726,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3785,7 +3785,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4145,10 +4145,10 @@
   <dimension ref="A1:BL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4171,215 +4171,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103">
+      <c r="B2" s="103"/>
+      <c r="C2" s="90">
         <f ca="1">TODAY()</f>
         <v>44050</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="K2" s="102" t="s">
+      <c r="D2" s="90"/>
+      <c r="K2" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103">
+      <c r="L2" s="103"/>
+      <c r="M2" s="90">
         <v>43992</v>
       </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="83">
+      <c r="N2" s="90"/>
+      <c r="O2" s="85">
         <v>43983</v>
       </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="83">
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="85">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="83">
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="86"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="85">
         <v>44044</v>
       </c>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="86"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="86"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="86"/>
+      <c r="BJ2" s="86"/>
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="86"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="92" t="s">
+      <c r="K3" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="M3" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="N3" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="97">
+      <c r="O3" s="82">
         <v>43990</v>
       </c>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="97">
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="82">
         <v>43997</v>
       </c>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="97">
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="82">
         <v>44004</v>
       </c>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="97">
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="82">
         <v>44011</v>
       </c>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="97">
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="82">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="97">
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="82">
         <v>44025</v>
       </c>
-      <c r="AO3" s="98"/>
-      <c r="AP3" s="98"/>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="101"/>
-      <c r="AS3" s="97">
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="82">
         <v>44032</v>
       </c>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="97">
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="82">
         <v>44039</v>
       </c>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="98"/>
-      <c r="BA3" s="98"/>
-      <c r="BB3" s="101"/>
-      <c r="BC3" s="97">
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="82">
         <v>44046</v>
       </c>
-      <c r="BD3" s="98"/>
-      <c r="BE3" s="98"/>
-      <c r="BF3" s="98"/>
-      <c r="BG3" s="101"/>
-      <c r="BH3" s="97">
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="82">
         <v>44053</v>
       </c>
-      <c r="BI3" s="98"/>
-      <c r="BJ3" s="98"/>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="101"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="84"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -8011,7 +8011,9 @@
       <c r="J49" s="44">
         <v>44057</v>
       </c>
-      <c r="K49" s="45"/>
+      <c r="K49" s="44">
+        <v>44054</v>
+      </c>
       <c r="L49" s="42"/>
       <c r="M49" s="39">
         <v>1</v>
@@ -20884,17 +20886,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20911,6 +20902,17 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="400">
   <si>
     <t>标识号</t>
   </si>
@@ -1450,6 +1450,14 @@
   </si>
   <si>
     <t>10 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.3.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2035,14 +2043,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2050,20 +2052,8 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2084,6 +2074,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2092,14 +2088,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2602,7 +2610,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2661,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2720,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2779,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2830,7 +2838,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2897,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2940,7 +2948,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +3007,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3066,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,7 +3117,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3176,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3227,7 +3235,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3286,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3337,7 +3345,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3404,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3455,7 +3463,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3522,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3573,7 +3581,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3624,7 +3632,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,7 +3683,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3726,7 +3734,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3785,7 +3793,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4145,10 +4153,10 @@
   <dimension ref="A1:BL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="AQ5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
+      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4171,215 +4179,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="90">
+      <c r="B2" s="102"/>
+      <c r="C2" s="103">
         <f ca="1">TODAY()</f>
-        <v>44050</v>
-      </c>
-      <c r="D2" s="90"/>
-      <c r="K2" s="103" t="s">
+        <v>44054</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="K2" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="90">
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>43992</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="85">
+      <c r="N2" s="103"/>
+      <c r="O2" s="83">
         <v>43983</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="85">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="83">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="86"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="85">
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="83">
         <v>44044</v>
       </c>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="86"/>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="86"/>
-      <c r="BI2" s="86"/>
-      <c r="BJ2" s="86"/>
-      <c r="BK2" s="86"/>
-      <c r="BL2" s="86"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="84"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="97">
         <v>43990</v>
       </c>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="82">
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="97">
         <v>43997</v>
       </c>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="82">
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="97">
         <v>44004</v>
       </c>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="82">
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="97">
         <v>44011</v>
       </c>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="82">
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="97">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="82">
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="97">
         <v>44025</v>
       </c>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="82">
+      <c r="AO3" s="98"/>
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="97">
         <v>44032</v>
       </c>
-      <c r="AT3" s="83"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="83"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="82">
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="98"/>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="97">
         <v>44039</v>
       </c>
-      <c r="AY3" s="83"/>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="82">
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
+      <c r="BA3" s="98"/>
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="97">
         <v>44046</v>
       </c>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="82">
+      <c r="BD3" s="98"/>
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="98"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="97">
         <v>44053</v>
       </c>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="84"/>
+      <c r="BI3" s="98"/>
+      <c r="BJ3" s="98"/>
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="101"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -7776,7 +7784,9 @@
       <c r="K46" s="44">
         <v>44050</v>
       </c>
-      <c r="L46" s="42"/>
+      <c r="L46" s="27" t="s">
+        <v>358</v>
+      </c>
       <c r="M46" s="39">
         <v>1</v>
       </c>
@@ -7934,7 +7944,9 @@
         <v>44057</v>
       </c>
       <c r="K48" s="45"/>
-      <c r="L48" s="42"/>
+      <c r="L48" s="27" t="s">
+        <v>297</v>
+      </c>
       <c r="M48" s="39">
         <v>1</v>
       </c>
@@ -8156,7 +8168,9 @@
       <c r="I51" s="44">
         <v>44053</v>
       </c>
-      <c r="J51" s="44"/>
+      <c r="J51" s="44">
+        <v>44057</v>
+      </c>
       <c r="K51" s="45"/>
       <c r="L51" s="42"/>
       <c r="M51" s="40"/>
@@ -8230,9 +8244,13 @@
       <c r="I52" s="44">
         <v>44060</v>
       </c>
-      <c r="J52" s="44"/>
+      <c r="J52" s="44">
+        <v>44064</v>
+      </c>
       <c r="K52" s="45"/>
-      <c r="L52" s="42"/>
+      <c r="L52" s="27" t="s">
+        <v>298</v>
+      </c>
       <c r="M52" s="40"/>
       <c r="N52" s="63" t="s">
         <v>310</v>
@@ -8304,9 +8322,13 @@
       <c r="I53" s="44">
         <v>44067</v>
       </c>
-      <c r="J53" s="44"/>
+      <c r="J53" s="44">
+        <v>44071</v>
+      </c>
       <c r="K53" s="45"/>
-      <c r="L53" s="42"/>
+      <c r="L53" s="27" t="s">
+        <v>398</v>
+      </c>
       <c r="M53" s="40"/>
       <c r="N53" s="63" t="s">
         <v>310</v>
@@ -8446,7 +8468,9 @@
       <c r="I55" s="44">
         <v>44053</v>
       </c>
-      <c r="J55" s="44"/>
+      <c r="J55" s="44">
+        <v>44057</v>
+      </c>
       <c r="K55" s="45"/>
       <c r="L55" s="42"/>
       <c r="M55" s="40"/>
@@ -8520,9 +8544,13 @@
       <c r="I56" s="44">
         <v>44060</v>
       </c>
-      <c r="J56" s="44"/>
+      <c r="J56" s="44">
+        <v>44064</v>
+      </c>
       <c r="K56" s="45"/>
-      <c r="L56" s="42"/>
+      <c r="L56" s="27" t="s">
+        <v>301</v>
+      </c>
       <c r="M56" s="40"/>
       <c r="N56" s="63" t="s">
         <v>187</v>
@@ -8594,9 +8622,13 @@
       <c r="I57" s="44">
         <v>44067</v>
       </c>
-      <c r="J57" s="44"/>
+      <c r="J57" s="44">
+        <v>44071</v>
+      </c>
       <c r="K57" s="45"/>
-      <c r="L57" s="42"/>
+      <c r="L57" s="27" t="s">
+        <v>399</v>
+      </c>
       <c r="M57" s="40"/>
       <c r="N57" s="63" t="s">
         <v>187</v>
@@ -8736,10 +8768,18 @@
       <c r="I59" s="44">
         <v>44053</v>
       </c>
-      <c r="J59" s="44"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="40"/>
+      <c r="J59" s="44">
+        <v>44057</v>
+      </c>
+      <c r="K59" s="44">
+        <v>44055</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="M59" s="39">
+        <v>1</v>
+      </c>
       <c r="N59" s="63" t="s">
         <v>177</v>
       </c>
@@ -8810,10 +8850,18 @@
       <c r="I60" s="44">
         <v>44060</v>
       </c>
-      <c r="J60" s="44"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="40"/>
+      <c r="J60" s="44">
+        <v>44064</v>
+      </c>
+      <c r="K60" s="44">
+        <v>44057</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="M60" s="39">
+        <v>1</v>
+      </c>
       <c r="N60" s="63" t="s">
         <v>189</v>
       </c>
@@ -8884,7 +8932,9 @@
       <c r="I61" s="44">
         <v>44067</v>
       </c>
-      <c r="J61" s="44"/>
+      <c r="J61" s="44">
+        <v>44071</v>
+      </c>
       <c r="K61" s="45"/>
       <c r="L61" s="42" t="s">
         <v>317</v>
@@ -8960,10 +9010,18 @@
       <c r="I62" s="44">
         <v>44053</v>
       </c>
-      <c r="J62" s="44"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="40"/>
+      <c r="J62" s="44">
+        <v>44057</v>
+      </c>
+      <c r="K62" s="44">
+        <v>44056</v>
+      </c>
+      <c r="L62" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="M62" s="39">
+        <v>1</v>
+      </c>
       <c r="N62" s="63" t="s">
         <v>191</v>
       </c>
@@ -9034,7 +9092,9 @@
       <c r="I63" s="44">
         <v>44060</v>
       </c>
-      <c r="J63" s="44"/>
+      <c r="J63" s="44">
+        <v>44064</v>
+      </c>
       <c r="K63" s="45"/>
       <c r="L63" s="42" t="s">
         <v>296</v>
@@ -9110,9 +9170,13 @@
       <c r="I64" s="44">
         <v>44067</v>
       </c>
-      <c r="J64" s="44"/>
+      <c r="J64" s="44">
+        <v>44071</v>
+      </c>
       <c r="K64" s="45"/>
-      <c r="L64" s="42"/>
+      <c r="L64" s="27" t="s">
+        <v>363</v>
+      </c>
       <c r="M64" s="40"/>
       <c r="N64" s="63" t="s">
         <v>192</v>
@@ -9251,7 +9315,9 @@
       <c r="I66" s="44">
         <v>44074</v>
       </c>
-      <c r="J66" s="44"/>
+      <c r="J66" s="44">
+        <v>44078</v>
+      </c>
       <c r="K66" s="45"/>
       <c r="L66" s="42"/>
       <c r="M66" s="40"/>
@@ -9324,7 +9390,9 @@
       <c r="I67" s="44">
         <v>44074</v>
       </c>
-      <c r="J67" s="44"/>
+      <c r="J67" s="44">
+        <v>44078</v>
+      </c>
       <c r="K67" s="45"/>
       <c r="L67" s="42"/>
       <c r="M67" s="40"/>
@@ -20886,6 +20954,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20902,17 +20981,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
@@ -2043,8 +2043,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2052,8 +2058,20 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2074,12 +2092,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2088,26 +2100,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +2661,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2720,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2779,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2948,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3007,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3066,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3117,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3176,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3235,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3286,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3345,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3404,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3463,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3522,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,7 +3581,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3632,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3683,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3734,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3793,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,10 +4153,10 @@
   <dimension ref="A1:BL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="AQ5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
+      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4179,215 +4179,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103">
+      <c r="B2" s="103"/>
+      <c r="C2" s="90">
         <f ca="1">TODAY()</f>
-        <v>44054</v>
-      </c>
-      <c r="D2" s="103"/>
-      <c r="K2" s="102" t="s">
+        <v>44055</v>
+      </c>
+      <c r="D2" s="90"/>
+      <c r="K2" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103">
+      <c r="L2" s="103"/>
+      <c r="M2" s="90">
         <v>43992</v>
       </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="83">
+      <c r="N2" s="90"/>
+      <c r="O2" s="85">
         <v>43983</v>
       </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="83">
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="85">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="83">
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="86"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="85">
         <v>44044</v>
       </c>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="86"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="86"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="86"/>
+      <c r="BJ2" s="86"/>
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="86"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="92" t="s">
+      <c r="K3" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="M3" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="N3" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="97">
+      <c r="O3" s="82">
         <v>43990</v>
       </c>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="97">
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="82">
         <v>43997</v>
       </c>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="97">
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="82">
         <v>44004</v>
       </c>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="97">
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="82">
         <v>44011</v>
       </c>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="97">
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="82">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="97">
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="82">
         <v>44025</v>
       </c>
-      <c r="AO3" s="98"/>
-      <c r="AP3" s="98"/>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="101"/>
-      <c r="AS3" s="97">
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="82">
         <v>44032</v>
       </c>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="97">
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="82">
         <v>44039</v>
       </c>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="98"/>
-      <c r="BA3" s="98"/>
-      <c r="BB3" s="101"/>
-      <c r="BC3" s="97">
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="82">
         <v>44046</v>
       </c>
-      <c r="BD3" s="98"/>
-      <c r="BE3" s="98"/>
-      <c r="BF3" s="98"/>
-      <c r="BG3" s="101"/>
-      <c r="BH3" s="97">
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="82">
         <v>44053</v>
       </c>
-      <c r="BI3" s="98"/>
-      <c r="BJ3" s="98"/>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="101"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="84"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -7017,11 +7017,15 @@
       <c r="J36" s="44">
         <v>44048</v>
       </c>
-      <c r="K36" s="45"/>
+      <c r="K36" s="44">
+        <v>44055</v>
+      </c>
       <c r="L36" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="M36" s="39"/>
+      <c r="M36" s="39">
+        <v>1</v>
+      </c>
       <c r="N36" s="62" t="s">
         <v>355</v>
       </c>
@@ -20954,17 +20958,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20981,6 +20974,17 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
@@ -2043,14 +2043,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2058,20 +2052,8 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2092,6 +2074,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2100,14 +2088,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +2661,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2720,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2779,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2948,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3007,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3066,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3117,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3176,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3235,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3286,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3345,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3404,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3463,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3522,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,7 +3581,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3632,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3683,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3734,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3793,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,10 +4153,10 @@
   <dimension ref="A1:BL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
+      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4179,215 +4179,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="90">
+      <c r="B2" s="102"/>
+      <c r="C2" s="103">
         <f ca="1">TODAY()</f>
-        <v>44055</v>
-      </c>
-      <c r="D2" s="90"/>
-      <c r="K2" s="103" t="s">
+        <v>44057</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="K2" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="90">
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>43992</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="85">
+      <c r="N2" s="103"/>
+      <c r="O2" s="83">
         <v>43983</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="85">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="83">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="86"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="85">
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="83">
         <v>44044</v>
       </c>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="86"/>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="86"/>
-      <c r="BI2" s="86"/>
-      <c r="BJ2" s="86"/>
-      <c r="BK2" s="86"/>
-      <c r="BL2" s="86"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="84"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="97">
         <v>43990</v>
       </c>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="82">
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="97">
         <v>43997</v>
       </c>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="82">
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="97">
         <v>44004</v>
       </c>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="82">
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="97">
         <v>44011</v>
       </c>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="82">
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="97">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="82">
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="97">
         <v>44025</v>
       </c>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="82">
+      <c r="AO3" s="98"/>
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="97">
         <v>44032</v>
       </c>
-      <c r="AT3" s="83"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="83"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="82">
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="98"/>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="97">
         <v>44039</v>
       </c>
-      <c r="AY3" s="83"/>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="82">
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
+      <c r="BA3" s="98"/>
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="97">
         <v>44046</v>
       </c>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="82">
+      <c r="BD3" s="98"/>
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="98"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="97">
         <v>44053</v>
       </c>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="84"/>
+      <c r="BI3" s="98"/>
+      <c r="BJ3" s="98"/>
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="101"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -7099,11 +7099,15 @@
       <c r="J37" s="44">
         <v>44050</v>
       </c>
-      <c r="K37" s="45"/>
+      <c r="K37" s="44">
+        <v>44057</v>
+      </c>
       <c r="L37" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="M37" s="39"/>
+      <c r="M37" s="39">
+        <v>1</v>
+      </c>
       <c r="N37" s="62" t="s">
         <v>95</v>
       </c>
@@ -7947,7 +7951,9 @@
       <c r="J48" s="44">
         <v>44057</v>
       </c>
-      <c r="K48" s="45"/>
+      <c r="K48" s="44">
+        <v>44057</v>
+      </c>
       <c r="L48" s="27" t="s">
         <v>297</v>
       </c>
@@ -20958,6 +20964,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20974,17 +20991,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
@@ -2043,8 +2043,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2052,8 +2058,20 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2074,12 +2092,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2088,26 +2100,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +2661,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2720,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2779,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2948,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3007,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3066,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3117,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3176,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3235,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3286,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3345,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3404,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3463,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3522,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,7 +3581,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3632,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3683,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3734,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3793,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,10 +4153,10 @@
   <dimension ref="A1:BL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4179,215 +4179,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103">
+      <c r="B2" s="103"/>
+      <c r="C2" s="90">
         <f ca="1">TODAY()</f>
         <v>44057</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="K2" s="102" t="s">
+      <c r="D2" s="90"/>
+      <c r="K2" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103">
+      <c r="L2" s="103"/>
+      <c r="M2" s="90">
         <v>43992</v>
       </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="83">
+      <c r="N2" s="90"/>
+      <c r="O2" s="85">
         <v>43983</v>
       </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="83">
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="85">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="83">
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="86"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="85">
         <v>44044</v>
       </c>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="86"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="86"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="86"/>
+      <c r="BJ2" s="86"/>
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="86"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="92" t="s">
+      <c r="K3" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="M3" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="N3" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="97">
+      <c r="O3" s="82">
         <v>43990</v>
       </c>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="97">
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="82">
         <v>43997</v>
       </c>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="97">
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="82">
         <v>44004</v>
       </c>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="97">
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="82">
         <v>44011</v>
       </c>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="97">
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="82">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="97">
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="82">
         <v>44025</v>
       </c>
-      <c r="AO3" s="98"/>
-      <c r="AP3" s="98"/>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="101"/>
-      <c r="AS3" s="97">
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="82">
         <v>44032</v>
       </c>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="97">
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="82">
         <v>44039</v>
       </c>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="98"/>
-      <c r="BA3" s="98"/>
-      <c r="BB3" s="101"/>
-      <c r="BC3" s="97">
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="82">
         <v>44046</v>
       </c>
-      <c r="BD3" s="98"/>
-      <c r="BE3" s="98"/>
-      <c r="BF3" s="98"/>
-      <c r="BG3" s="101"/>
-      <c r="BH3" s="97">
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="82">
         <v>44053</v>
       </c>
-      <c r="BI3" s="98"/>
-      <c r="BJ3" s="98"/>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="101"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="84"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -8176,10 +8176,10 @@
         <v>221</v>
       </c>
       <c r="I51" s="44">
-        <v>44053</v>
+        <v>44060</v>
       </c>
       <c r="J51" s="44">
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="K51" s="45"/>
       <c r="L51" s="42"/>
@@ -8252,10 +8252,10 @@
         <v>221</v>
       </c>
       <c r="I52" s="44">
-        <v>44060</v>
+        <v>44067</v>
       </c>
       <c r="J52" s="44">
-        <v>44064</v>
+        <v>44071</v>
       </c>
       <c r="K52" s="45"/>
       <c r="L52" s="27" t="s">
@@ -8330,10 +8330,10 @@
         <v>221</v>
       </c>
       <c r="I53" s="44">
-        <v>44067</v>
+        <v>44074</v>
       </c>
       <c r="J53" s="44">
-        <v>44071</v>
+        <v>44078</v>
       </c>
       <c r="K53" s="45"/>
       <c r="L53" s="27" t="s">
@@ -8476,10 +8476,10 @@
         <v>221</v>
       </c>
       <c r="I55" s="44">
-        <v>44053</v>
+        <v>44060</v>
       </c>
       <c r="J55" s="44">
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="K55" s="45"/>
       <c r="L55" s="42"/>
@@ -8552,10 +8552,10 @@
         <v>221</v>
       </c>
       <c r="I56" s="44">
-        <v>44060</v>
+        <v>44067</v>
       </c>
       <c r="J56" s="44">
-        <v>44064</v>
+        <v>44071</v>
       </c>
       <c r="K56" s="45"/>
       <c r="L56" s="27" t="s">
@@ -8630,10 +8630,10 @@
         <v>221</v>
       </c>
       <c r="I57" s="44">
-        <v>44067</v>
+        <v>44074</v>
       </c>
       <c r="J57" s="44">
-        <v>44071</v>
+        <v>44078</v>
       </c>
       <c r="K57" s="45"/>
       <c r="L57" s="27" t="s">
@@ -20964,17 +20964,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20991,6 +20980,17 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
@@ -2043,14 +2043,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2058,20 +2052,8 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2092,6 +2074,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2100,14 +2088,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +2661,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2720,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2779,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2948,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3007,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3066,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3117,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3176,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3235,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3286,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3345,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3404,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3463,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3522,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,7 +3581,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3632,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3683,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3734,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3793,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,10 +4153,10 @@
   <dimension ref="A1:BL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomRight" activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4179,215 +4179,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="90">
+      <c r="B2" s="102"/>
+      <c r="C2" s="103">
         <f ca="1">TODAY()</f>
-        <v>44057</v>
-      </c>
-      <c r="D2" s="90"/>
-      <c r="K2" s="103" t="s">
+        <v>44060</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="K2" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="90">
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>43992</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="85">
+      <c r="N2" s="103"/>
+      <c r="O2" s="83">
         <v>43983</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="85">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="83">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="86"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="85">
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="83">
         <v>44044</v>
       </c>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="86"/>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="86"/>
-      <c r="BI2" s="86"/>
-      <c r="BJ2" s="86"/>
-      <c r="BK2" s="86"/>
-      <c r="BL2" s="86"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="84"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="97">
         <v>43990</v>
       </c>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="82">
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="97">
         <v>43997</v>
       </c>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="82">
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="97">
         <v>44004</v>
       </c>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="82">
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="97">
         <v>44011</v>
       </c>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="82">
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="97">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="82">
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="97">
         <v>44025</v>
       </c>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="82">
+      <c r="AO3" s="98"/>
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="97">
         <v>44032</v>
       </c>
-      <c r="AT3" s="83"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="83"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="82">
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="98"/>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="97">
         <v>44039</v>
       </c>
-      <c r="AY3" s="83"/>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="82">
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
+      <c r="BA3" s="98"/>
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="97">
         <v>44046</v>
       </c>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="82">
+      <c r="BD3" s="98"/>
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="98"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="97">
         <v>44053</v>
       </c>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="84"/>
+      <c r="BI3" s="98"/>
+      <c r="BJ3" s="98"/>
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="101"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -20964,6 +20964,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20980,17 +20991,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
@@ -2043,8 +2043,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2052,8 +2058,20 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2074,12 +2092,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2088,26 +2100,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +2661,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2720,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2779,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2948,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3007,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3066,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3117,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3176,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3235,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3286,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3345,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3404,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3463,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3522,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,7 +3581,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3632,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3683,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3734,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3793,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,10 +4153,10 @@
   <dimension ref="A1:BL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K61" sqref="K61"/>
+      <selection pane="bottomRight" activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4179,215 +4179,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103">
+      <c r="B2" s="103"/>
+      <c r="C2" s="90">
         <f ca="1">TODAY()</f>
-        <v>44064</v>
-      </c>
-      <c r="D2" s="103"/>
-      <c r="K2" s="102" t="s">
+        <v>44070</v>
+      </c>
+      <c r="D2" s="90"/>
+      <c r="K2" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103">
+      <c r="L2" s="103"/>
+      <c r="M2" s="90">
         <v>43992</v>
       </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="83">
+      <c r="N2" s="90"/>
+      <c r="O2" s="85">
         <v>43983</v>
       </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="83">
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="85">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="83">
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="86"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="86"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="85">
         <v>44044</v>
       </c>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="86"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="86"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="86"/>
+      <c r="BJ2" s="86"/>
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="86"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="92" t="s">
+      <c r="K3" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="M3" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="N3" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="97">
+      <c r="O3" s="82">
         <v>43990</v>
       </c>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="97">
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="82">
         <v>43997</v>
       </c>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="97">
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="82">
         <v>44004</v>
       </c>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="97">
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="82">
         <v>44011</v>
       </c>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="97">
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="82">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="97">
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="82">
         <v>44025</v>
       </c>
-      <c r="AO3" s="98"/>
-      <c r="AP3" s="98"/>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="101"/>
-      <c r="AS3" s="97">
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="82">
         <v>44032</v>
       </c>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="97">
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="82">
         <v>44039</v>
       </c>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="98"/>
-      <c r="BA3" s="98"/>
-      <c r="BB3" s="101"/>
-      <c r="BC3" s="97">
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="82">
         <v>44046</v>
       </c>
-      <c r="BD3" s="98"/>
-      <c r="BE3" s="98"/>
-      <c r="BF3" s="98"/>
-      <c r="BG3" s="101"/>
-      <c r="BH3" s="97">
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="82">
         <v>44053</v>
       </c>
-      <c r="BI3" s="98"/>
-      <c r="BJ3" s="98"/>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="101"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="84"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -20964,17 +20964,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20991,6 +20980,17 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200727.xlsx
@@ -2043,14 +2043,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2058,20 +2052,8 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2092,6 +2074,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2100,14 +2088,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +2661,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2720,7 +2720,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2779,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2948,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3007,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3066,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3117,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3176,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3235,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3286,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3345,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3404,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3463,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3522,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,7 +3581,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3632,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3683,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3734,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3793,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,10 +4153,10 @@
   <dimension ref="A1:BL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M83" sqref="M83"/>
+      <selection pane="bottomRight" activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4179,215 +4179,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="90">
+      <c r="B2" s="102"/>
+      <c r="C2" s="103">
         <f ca="1">TODAY()</f>
-        <v>44070</v>
-      </c>
-      <c r="D2" s="90"/>
-      <c r="K2" s="103" t="s">
+        <v>44103</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="K2" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="90">
+      <c r="L2" s="102"/>
+      <c r="M2" s="103">
         <v>43992</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="85">
+      <c r="N2" s="103"/>
+      <c r="O2" s="83">
         <v>43983</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="85">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="83">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="86"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="85">
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="83">
         <v>44044</v>
       </c>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="86"/>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="86"/>
-      <c r="BI2" s="86"/>
-      <c r="BJ2" s="86"/>
-      <c r="BK2" s="86"/>
-      <c r="BL2" s="86"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="84"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="97">
         <v>43990</v>
       </c>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="82">
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="97">
         <v>43997</v>
       </c>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="82">
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="97">
         <v>44004</v>
       </c>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="82">
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="97">
         <v>44011</v>
       </c>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="82">
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="97">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="82">
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="97">
         <v>44025</v>
       </c>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="82">
+      <c r="AO3" s="98"/>
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="97">
         <v>44032</v>
       </c>
-      <c r="AT3" s="83"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="83"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="82">
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="98"/>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="97">
         <v>44039</v>
       </c>
-      <c r="AY3" s="83"/>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="82">
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
+      <c r="BA3" s="98"/>
+      <c r="BB3" s="101"/>
+      <c r="BC3" s="97">
         <v>44046</v>
       </c>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="82">
+      <c r="BD3" s="98"/>
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="98"/>
+      <c r="BG3" s="101"/>
+      <c r="BH3" s="97">
         <v>44053</v>
       </c>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="84"/>
+      <c r="BI3" s="98"/>
+      <c r="BJ3" s="98"/>
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="101"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -8181,9 +8181,13 @@
       <c r="J51" s="44">
         <v>44064</v>
       </c>
-      <c r="K51" s="45"/>
+      <c r="K51" s="44">
+        <v>44077</v>
+      </c>
       <c r="L51" s="42"/>
-      <c r="M51" s="40"/>
+      <c r="M51" s="39">
+        <v>1</v>
+      </c>
       <c r="N51" s="63" t="s">
         <v>311</v>
       </c>
@@ -8257,11 +8261,15 @@
       <c r="J52" s="44">
         <v>44071</v>
       </c>
-      <c r="K52" s="45"/>
+      <c r="K52" s="44">
+        <v>44083</v>
+      </c>
       <c r="L52" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="M52" s="40"/>
+      <c r="M52" s="39">
+        <v>1</v>
+      </c>
       <c r="N52" s="63" t="s">
         <v>310</v>
       </c>
@@ -8481,9 +8489,13 @@
       <c r="J55" s="44">
         <v>44064</v>
       </c>
-      <c r="K55" s="45"/>
+      <c r="K55" s="44">
+        <v>44068</v>
+      </c>
       <c r="L55" s="42"/>
-      <c r="M55" s="40"/>
+      <c r="M55" s="39">
+        <v>1</v>
+      </c>
       <c r="N55" s="63" t="s">
         <v>187</v>
       </c>
@@ -8557,11 +8569,15 @@
       <c r="J56" s="44">
         <v>44071</v>
       </c>
-      <c r="K56" s="45"/>
+      <c r="K56" s="44">
+        <v>44077</v>
+      </c>
       <c r="L56" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="M56" s="40"/>
+      <c r="M56" s="39">
+        <v>1</v>
+      </c>
       <c r="N56" s="63" t="s">
         <v>187</v>
       </c>
@@ -8635,11 +8651,15 @@
       <c r="J57" s="44">
         <v>44078</v>
       </c>
-      <c r="K57" s="45"/>
+      <c r="K57" s="44">
+        <v>44085</v>
+      </c>
       <c r="L57" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="M57" s="40"/>
+      <c r="M57" s="39">
+        <v>1</v>
+      </c>
       <c r="N57" s="63" t="s">
         <v>187</v>
       </c>
@@ -8945,11 +8965,15 @@
       <c r="J61" s="44">
         <v>44071</v>
       </c>
-      <c r="K61" s="45"/>
+      <c r="K61" s="44">
+        <v>44085</v>
+      </c>
       <c r="L61" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="M61" s="40"/>
+      <c r="M61" s="39">
+        <v>1</v>
+      </c>
       <c r="N61" s="63" t="s">
         <v>188</v>
       </c>
@@ -9105,11 +9129,15 @@
       <c r="J63" s="44">
         <v>44064</v>
       </c>
-      <c r="K63" s="45"/>
+      <c r="K63" s="44">
+        <v>44084</v>
+      </c>
       <c r="L63" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="M63" s="40"/>
+      <c r="M63" s="39">
+        <v>1</v>
+      </c>
       <c r="N63" s="63" t="s">
         <v>192</v>
       </c>
@@ -9183,11 +9211,15 @@
       <c r="J64" s="44">
         <v>44071</v>
       </c>
-      <c r="K64" s="45"/>
+      <c r="K64" s="44">
+        <v>44085</v>
+      </c>
       <c r="L64" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="M64" s="40"/>
+      <c r="M64" s="39">
+        <v>1</v>
+      </c>
       <c r="N64" s="63" t="s">
         <v>192</v>
       </c>
@@ -9328,9 +9360,13 @@
       <c r="J66" s="44">
         <v>44078</v>
       </c>
-      <c r="K66" s="45"/>
+      <c r="K66" s="44">
+        <v>44085</v>
+      </c>
       <c r="L66" s="42"/>
-      <c r="M66" s="40"/>
+      <c r="M66" s="39">
+        <v>1</v>
+      </c>
       <c r="N66" s="63" t="s">
         <v>208</v>
       </c>
@@ -9403,9 +9439,13 @@
       <c r="J67" s="44">
         <v>44078</v>
       </c>
-      <c r="K67" s="45"/>
+      <c r="K67" s="44">
+        <v>44088</v>
+      </c>
       <c r="L67" s="42"/>
-      <c r="M67" s="40"/>
+      <c r="M67" s="39">
+        <v>1</v>
+      </c>
       <c r="N67" s="63" t="s">
         <v>295</v>
       </c>
@@ -9475,10 +9515,16 @@
       <c r="I68" s="44">
         <v>44081</v>
       </c>
-      <c r="J68" s="44"/>
-      <c r="K68" s="45"/>
+      <c r="J68" s="44">
+        <v>44085</v>
+      </c>
+      <c r="K68" s="44">
+        <v>44088</v>
+      </c>
       <c r="L68" s="42"/>
-      <c r="M68" s="40"/>
+      <c r="M68" s="39">
+        <v>1</v>
+      </c>
       <c r="N68" s="63" t="s">
         <v>209</v>
       </c>
@@ -20964,6 +21010,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20980,17 +21037,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
